--- a/Lookup_Tables.xlsx
+++ b/Lookup_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2176012B-3D55-334D-93AC-D7C449F21E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BE982-4589-0145-9A19-7620AD87E6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C291BDE-19EC-5B40-9DE8-2BB95DEB5D84}">
   <dimension ref="B2:R258"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2696,7 +2696,7 @@
         <v>360,</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(INT((($B34 * 16) + R$2) * 0.707), ",")</f>
         <v>361,</v>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3456,68 +3456,68 @@
         <v>0</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>CONCATENATE("{", FIXED(0, 2), "}", ",")</f>
-        <v>{0.00},</v>
+        <f>CONCATENATE(FIXED(0, 2), ",")</f>
+        <v>0.00,</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{30.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>30.46,</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{36.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>36.48,</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{40.00},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>40.00,</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{42.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>42.50,</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{44.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>44.44,</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{46.02},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>46.02,</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{47.36},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>47.36,</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{48.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>48.52,</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{49.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>49.54,</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{50.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>50.46,</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{51.29},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>51.29,</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{52.04},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>52.04,</v>
       </c>
       <c r="P5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{52.74},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>52.74,</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{53.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>53.38,</v>
       </c>
       <c r="R5" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B5 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{53.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>53.98,</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -3525,68 +3525,68 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{54.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>54.54,</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{55.07},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>55.07,</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{55.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>55.56,</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{56.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>56.03,</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{56.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>56.48,</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{56.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>56.90,</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{57.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>57.31,</v>
       </c>
       <c r="J6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{57.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>57.69,</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{58.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>58.06,</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{58.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>58.42,</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{58.76},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>58.76,</v>
       </c>
       <c r="N6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{59.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>59.08,</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{59.40},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>59.40,</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{59.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>59.71,</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{60.00},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>60.00,</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B6 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{60.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>60.28,</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -3594,68 +3594,68 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{60.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>60.56,</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{60.83},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>60.83,</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{61.09},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>61.09,</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{61.34},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>61.34,</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{61.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>61.58,</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{61.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>61.82,</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{62.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>62.05,</v>
       </c>
       <c r="J7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{62.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>62.28,</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{62.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>62.50,</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{62.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>62.71,</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{62.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>62.92,</v>
       </c>
       <c r="N7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{63.13},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>63.13,</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{63.33},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>63.33,</v>
       </c>
       <c r="P7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{63.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>63.52,</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{63.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>63.71,</v>
       </c>
       <c r="R7" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B7 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{63.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>63.90,</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -3663,68 +3663,68 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>64.08,</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>64.26,</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>64.44,</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>64.61,</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.78},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>64.78,</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{64.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>64.94,</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>65.11,</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>65.26,</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>65.42,</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>65.58,</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>65.73,</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{65.87},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>65.87,</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.02},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>66.02,</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.16},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>66.16,</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>66.31,</v>
       </c>
       <c r="R8" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B8 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>66.44,</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -3732,68 +3732,68 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>66.58,</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.72},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>66.72,</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.85},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>66.85,</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{66.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>66.98,</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>67.11,</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>67.23,</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.36},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>67.36,</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>67.48,</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.60},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>67.60,</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.72},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>67.72,</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.84},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>67.84,</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{67.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>67.96,</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.07},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>68.07,</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>68.19,</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.30},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>68.30,</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B9 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.41},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>68.41,</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -3801,68 +3801,68 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>68.52,</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.63},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>68.63,</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>68.73,</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.84},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>68.84,</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{68.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>68.94,</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>69.05,</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>69.15,</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.25},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>69.25,</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>69.35,</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.45},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>69.45,</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>69.54,</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.64},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>69.64,</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>69.73,</v>
       </c>
       <c r="P10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.83},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>69.83,</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{69.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>69.92,</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B10 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.01},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>70.01,</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -3870,68 +3870,68 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.10},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>70.10,</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>70.19,</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>70.28,</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>70.37,</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>70.46,</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>70.54,</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.63},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>70.63,</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>70.71,</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>70.80,</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>70.88,</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{70.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>70.96,</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>71.05,</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.13},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>71.13,</v>
       </c>
       <c r="P11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>71.21,</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.29},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>71.29,</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B11 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.36},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>71.36,</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -3939,68 +3939,68 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>71.44,</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>71.52,</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.60},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>71.60,</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.67},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>71.67,</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>71.75,</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>71.82,</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>71.90,</v>
       </c>
       <c r="J12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{71.97},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>71.97,</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.04},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>72.04,</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>72.11,</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.18},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>72.18,</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>72.26,</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.33},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>72.33,</v>
       </c>
       <c r="P12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.40},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>72.40,</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>72.46,</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B12 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.53},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>72.53,</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -4008,68 +4008,68 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.60},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>72.60,</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.67},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>72.67,</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.74},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>72.74,</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>72.80,</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.87},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>72.87,</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{72.93},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>72.93,</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.00},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>73.00,</v>
       </c>
       <c r="J13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>73.06,</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.13},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>73.13,</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>73.19,</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>73.26,</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.32},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>73.32,</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>73.38,</v>
       </c>
       <c r="P13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>73.44,</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>73.50,</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B13 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>73.56,</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -4077,68 +4077,68 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.62},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>73.62,</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.68},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>73.68,</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.74},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>73.74,</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>73.80,</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>73.86,</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>73.92,</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{73.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>73.98,</v>
       </c>
       <c r="J14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.04},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>74.04,</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.09},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>74.09,</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>74.15,</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>74.21,</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>74.26,</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.32},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>74.32,</v>
       </c>
       <c r="P14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>74.38,</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.43},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>74.43,</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B14 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.49},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>74.49,</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -4146,68 +4146,68 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>74.54,</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.59},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>74.59,</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.65},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>74.65,</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.70},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>74.70,</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>74.75,</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.81},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>74.81,</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>74.86,</v>
       </c>
       <c r="J15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.91},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>74.91,</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{74.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>74.96,</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.02},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>75.02,</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.07},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>75.07,</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>75.12,</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>75.17,</v>
       </c>
       <c r="P15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.22},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>75.22,</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.27},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>75.27,</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B15 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.32},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>75.32,</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -4215,68 +4215,68 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>75.37,</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>75.42,</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.47},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>75.47,</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.51},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>75.51,</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>75.56,</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>75.61,</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.66},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>75.66,</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>75.71,</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>75.75,</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>75.80,</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.85},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>75.85,</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.89},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>75.89,</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>75.94,</v>
       </c>
       <c r="P16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{75.99},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>75.99,</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>76.03,</v>
       </c>
       <c r="R16" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B16 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>76.08,</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -4284,68 +4284,68 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>76.12,</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>76.17,</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>76.21,</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>76.26,</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.30},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>76.30,</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>76.35,</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.39},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>76.39,</v>
       </c>
       <c r="J17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.43},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>76.43,</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>76.48,</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>76.52,</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>76.56,</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>76.61,</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.65},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>76.65,</v>
       </c>
       <c r="P17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>76.69,</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>76.73,</v>
       </c>
       <c r="R17" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B17 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.78},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>76.78,</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -4353,68 +4353,68 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>76.82,</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>76.86,</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>76.90,</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>76.94,</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{76.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>76.98,</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>77.03,</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.07},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>77.07,</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>77.11,</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>77.15,</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>77.19,</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>77.23,</v>
       </c>
       <c r="N18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.27},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>77.27,</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>77.31,</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>77.35,</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>77.38,</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B18 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>77.42,</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -4422,68 +4422,68 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>77.46,</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>77.50,</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>77.54,</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>77.58,</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.62},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>77.62,</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.65},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>77.65,</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>77.69,</v>
       </c>
       <c r="J19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>77.73,</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.77},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>77.77,</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>77.80,</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.84},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>77.84,</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>77.88,</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>77.92,</v>
       </c>
       <c r="P19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.95},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>77.95,</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{77.99},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>77.99,</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B19 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>78.03,</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -4491,68 +4491,68 @@
         <v>15</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>78.06,</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.10},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>78.10,</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.13},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>78.13,</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>78.17,</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>78.21,</v>
       </c>
       <c r="H20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.24},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>78.24,</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>78.28,</v>
       </c>
       <c r="J20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>78.31,</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>78.35,</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>78.38,</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>78.42,</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.45},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>78.45,</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.49},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>78.49,</v>
       </c>
       <c r="P20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>78.52,</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.55},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>78.55,</v>
       </c>
       <c r="R20" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B20 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.59},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>78.59,</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -4560,68 +4560,68 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.62},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>78.62,</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.66},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>78.66,</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>78.69,</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.72},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>78.72,</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.76},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>78.76,</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.79},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>78.79,</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>78.82,</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>78.86,</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.89},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>78.89,</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>78.92,</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>78.96,</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{78.99},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>78.99,</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.02},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>79.02,</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>79.05,</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>79.08,</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B21 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>79.12,</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
@@ -4629,68 +4629,68 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>79.15,</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.18},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>79.18,</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>79.21,</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.24},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>79.24,</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>79.28,</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>79.31,</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.34},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>79.34,</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>79.37,</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.40},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>79.40,</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.43},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>79.43,</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>79.46,</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.49},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>79.49,</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>79.52,</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.55},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>79.55,</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>79.58,</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B22 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.62},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>79.62,</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -4698,68 +4698,68 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.65},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>79.65,</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.68},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>79.68,</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>79.71,</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.74},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>79.74,</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.77},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>79.77,</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.79},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>79.79,</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>79.82,</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.85},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>79.85,</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>79.88,</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.91},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>79.91,</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>79.94,</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{79.97},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>79.97,</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.00},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>80.00,</v>
       </c>
       <c r="P23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>80.03,</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>80.06,</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B23 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.09},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>80.09,</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -4767,68 +4767,68 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>80.12,</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.14},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>80.14,</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>80.17,</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.20},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>80.20,</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>80.23,</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>80.26,</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>80.28,</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>80.31,</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.34},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>80.34,</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>80.37,</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.40},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>80.40,</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>80.42,</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.45},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>80.45,</v>
       </c>
       <c r="P24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>80.48,</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.51},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>80.51,</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B24 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.53},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>80.53,</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -4836,68 +4836,68 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>80.56,</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.59},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>80.59,</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>80.61,</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.64},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>80.64,</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.67},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>80.67,</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.70},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>80.70,</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.72},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>80.72,</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>80.75,</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.78},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>80.78,</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>80.80,</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.83},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>80.83,</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.85},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>80.85,</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>80.88,</v>
       </c>
       <c r="P25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.91},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>80.91,</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.93},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>80.93,</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B25 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>80.96,</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -4905,68 +4905,68 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{80.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>80.98,</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.01},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>81.01,</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.04},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>81.04,</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>81.06,</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.09},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>81.09,</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>81.11,</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.14},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>81.14,</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.16},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>81.16,</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>81.19,</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>81.21,</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.24},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>81.24,</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>81.26,</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.29},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>81.29,</v>
       </c>
       <c r="P26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>81.31,</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.34},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>81.34,</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B26 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.36},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>81.36,</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -4974,68 +4974,68 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.39},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>81.39,</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.41},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>81.41,</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>81.44,</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>81.46,</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.49},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>81.49,</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.51},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>81.51,</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>81.54,</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>81.56,</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>81.58,</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>81.61,</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.63},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>81.63,</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.66},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>81.66,</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.68},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>81.68,</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.70},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>81.70,</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>81.73,</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B27 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>81.75,</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -5043,68 +5043,68 @@
         <v>23</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.77},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>81.77,</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>81.80,</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>81.82,</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.85},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>81.85,</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.87},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>81.87,</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.89},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>81.89,</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>81.92,</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>81.94,</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>81.96,</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{81.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>81.98,</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.01},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>82.01,</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>82.03,</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>82.05,</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>82.08,</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.10},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>82.10,</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B28 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>82.12,</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -5112,68 +5112,68 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.14},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>82.14,</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>82.17,</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>82.19,</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>82.21,</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>82.23,</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>82.26,</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>82.28,</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.30},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>82.30,</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.32},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>82.32,</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>82.35,</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>82.37,</v>
       </c>
       <c r="N29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.39},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>82.39,</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.41},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>82.41,</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.43},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>82.43,</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>82.46,</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B29 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>82.48,</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -5181,68 +5181,68 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>82.50,</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>82.52,</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>82.54,</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>82.56,</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.59},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>82.59,</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>82.61,</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.63},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>82.63,</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.65},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>82.65,</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.67},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>82.67,</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>82.69,</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>82.71,</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>82.73,</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.76},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>82.76,</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.78},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>82.78,</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.80},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>82.80,</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B30 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.82},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>82.82,</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -5250,68 +5250,68 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.84},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>82.84,</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>82.86,</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>82.88,</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>82.90,</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>82.92,</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>82.94,</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.96},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>82.96,</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{82.98},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>82.98,</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.00},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>83.00,</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>83.03,</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>83.05,</v>
       </c>
       <c r="N31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.07},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>83.07,</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.09},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>83.09,</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.11},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>83.11,</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.13},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>83.13,</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B31 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>83.15,</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -5319,68 +5319,68 @@
         <v>27</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>83.17,</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>83.19,</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>83.21,</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>83.23,</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.25},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>83.25,</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.27},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>83.27,</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.29},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>83.29,</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>83.31,</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.33},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>83.33,</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>83.35,</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>83.37,</v>
       </c>
       <c r="N32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.39},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>83.39,</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.41},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>83.41,</v>
       </c>
       <c r="P32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>83.42,</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>83.44,</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B32 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.46},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>83.46,</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
@@ -5388,68 +5388,68 @@
         <v>28</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.48},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>83.48,</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.50},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>83.50,</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>83.52,</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>83.54,</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>83.56,</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.58},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>83.58,</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.60},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>83.60,</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.62},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>83.62,</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.64},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>83.64,</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.66},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>83.66,</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.67},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>83.67,</v>
       </c>
       <c r="N33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.69},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>83.69,</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.71},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>83.71,</v>
       </c>
       <c r="P33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.73},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>83.73,</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.75},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>83.75,</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B33 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.77},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>83.77,</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
@@ -5457,68 +5457,68 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.79},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>83.79,</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.81},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>83.81,</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.83},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>83.83,</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.84},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>83.84,</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.86},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>83.86,</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.88},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>83.88,</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.90},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>83.90,</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.92},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>83.92,</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.94},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>83.94,</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.95},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>83.95,</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.97},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>83.97,</v>
       </c>
       <c r="N34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{83.99},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>83.99,</v>
       </c>
       <c r="O34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.01},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>84.01,</v>
       </c>
       <c r="P34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.03},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>84.03,</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.05},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>84.05,</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B34 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.06},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>84.06,</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
@@ -5526,68 +5526,68 @@
         <v>30</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.08},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>84.08,</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.10},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>84.10,</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.12},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>84.12,</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.14},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>84.14,</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.15},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>84.15,</v>
       </c>
       <c r="H35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.17},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>84.17,</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.19},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>84.19,</v>
       </c>
       <c r="J35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.21},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>84.21,</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.23},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>84.23,</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.24},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>84.24,</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.26},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>84.26,</v>
       </c>
       <c r="N35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.28},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>84.28,</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.30},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>84.30,</v>
       </c>
       <c r="P35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.31},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>84.31,</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.33},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>84.33,</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B35 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.35},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>84.35,</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
@@ -5595,68 +5595,68 @@
         <v>31</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + C$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.37},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <v>84.37,</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + D$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.38},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <v>84.38,</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + E$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.40},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <v>84.40,</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + F$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.42},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <v>84.42,</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + G$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.44},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <v>84.44,</v>
       </c>
       <c r="H36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + H$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.45},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <v>84.45,</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + I$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.47},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <v>84.47,</v>
       </c>
       <c r="J36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + J$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.49},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <v>84.49,</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + K$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.51},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <v>84.51,</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + L$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.52},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <v>84.52,</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + M$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.54},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <v>84.54,</v>
       </c>
       <c r="N36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + N$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.56},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <v>84.56,</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + O$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.57},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <v>84.57,</v>
       </c>
       <c r="P36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + P$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.59},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <v>84.59,</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + Q$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.61},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <v>84.61,</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f>CONCATENATE("{", FIXED(20 *LOG10((($B36 * 16) + R$4) / P_ZERO), 2), "}", ",")</f>
-        <v>{84.63},</v>
+        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <v>84.63,</v>
       </c>
     </row>
   </sheetData>

--- a/Lookup_Tables.xlsx
+++ b/Lookup_Tables.xlsx
@@ -8,18 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29BE982-4589-0145-9A19-7620AD87E6AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2224CC-DBA8-F544-830A-0FDFD8538D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
   <sheets>
     <sheet name="RMSLookup" sheetId="1" r:id="rId1"/>
     <sheet name="dBALookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="AMPLITUDE">#REF!</definedName>
+    <definedName name="CLOCK_FREQ">#REF!</definedName>
+    <definedName name="FREQ">#REF!</definedName>
     <definedName name="P_ZERO">dBALookup!$D$2</definedName>
+    <definedName name="PEAK_VALUE">#REF!</definedName>
+    <definedName name="PHASE_OFFSET">#REF!</definedName>
+    <definedName name="PRESCALER_DATA">#REF!</definedName>
+    <definedName name="PRESCALER_VALUE">#REF!</definedName>
+    <definedName name="SAMPLE_RATE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C291BDE-19EC-5B40-9DE8-2BB95DEB5D84}">
   <dimension ref="B2:R258"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3381,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E90281-845C-474E-9DCF-9E644CC6E714}">
   <dimension ref="B2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -3460,63 +3468,63 @@
         <v>0.00,</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" ref="D5:R14" si="0">CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + D$4)/ P_ZERO), 2), ",")</f>
         <v>30.46,</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>36.48,</v>
       </c>
       <c r="F5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>40.00,</v>
       </c>
       <c r="G5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>42.50,</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>44.44,</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>46.02,</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>47.36,</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>48.52,</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>49.54,</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>50.46,</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>51.29,</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>52.04,</v>
       </c>
       <c r="P5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>52.74,</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>53.38,</v>
       </c>
       <c r="R5" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>53.98,</v>
       </c>
     </row>
@@ -3525,67 +3533,67 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" ref="C6:C36" si="1">CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + C$4)/ P_ZERO), 2), ",")</f>
         <v>54.54,</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>55.07,</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>55.56,</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>56.03,</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>56.48,</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>56.90,</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>57.31,</v>
       </c>
       <c r="J6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>57.69,</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>58.06,</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>58.42,</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>58.76,</v>
       </c>
       <c r="N6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>59.08,</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>59.40,</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>59.71,</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>60.00,</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>60.28,</v>
       </c>
     </row>
@@ -3594,67 +3602,67 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>60.56,</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>60.83,</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>61.09,</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>61.34,</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>61.58,</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>61.82,</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>62.05,</v>
       </c>
       <c r="J7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>62.28,</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>62.50,</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>62.71,</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>62.92,</v>
       </c>
       <c r="N7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>63.13,</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>63.33,</v>
       </c>
       <c r="P7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>63.52,</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>63.71,</v>
       </c>
       <c r="R7" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B7 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>63.90,</v>
       </c>
     </row>
@@ -3663,67 +3671,67 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>64.08,</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>64.26,</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>64.44,</v>
       </c>
       <c r="F8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>64.61,</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>64.78,</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>64.94,</v>
       </c>
       <c r="I8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.11,</v>
       </c>
       <c r="J8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.26,</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.42,</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.58,</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.73,</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>65.87,</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.02,</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.16,</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.31,</v>
       </c>
       <c r="R8" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B8 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.44,</v>
       </c>
     </row>
@@ -3732,67 +3740,67 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>66.58,</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.72,</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.85,</v>
       </c>
       <c r="F9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>66.98,</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.11,</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.23,</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.36,</v>
       </c>
       <c r="J9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.48,</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.60,</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.72,</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.84,</v>
       </c>
       <c r="N9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>67.96,</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.07,</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.19,</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.30,</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B9 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.41,</v>
       </c>
     </row>
@@ -3801,67 +3809,67 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>68.52,</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.63,</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.73,</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.84,</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>68.94,</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.05,</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.15,</v>
       </c>
       <c r="J10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.25,</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.35,</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.45,</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.54,</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.64,</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.73,</v>
       </c>
       <c r="P10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.83,</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>69.92,</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B10 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.01,</v>
       </c>
     </row>
@@ -3870,67 +3878,67 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>70.10,</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.19,</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.28,</v>
       </c>
       <c r="F11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.37,</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.46,</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.54,</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.63,</v>
       </c>
       <c r="J11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.71,</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.80,</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.88,</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>70.96,</v>
       </c>
       <c r="N11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.05,</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.13,</v>
       </c>
       <c r="P11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.21,</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.29,</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B11 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.36,</v>
       </c>
     </row>
@@ -3939,67 +3947,67 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>71.44,</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.52,</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.60,</v>
       </c>
       <c r="F12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.67,</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.75,</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.82,</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.90,</v>
       </c>
       <c r="J12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>71.97,</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.04,</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.11,</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.18,</v>
       </c>
       <c r="N12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.26,</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.33,</v>
       </c>
       <c r="P12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.40,</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.46,</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B12 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.53,</v>
       </c>
     </row>
@@ -4008,67 +4016,67 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>72.60,</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.67,</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.74,</v>
       </c>
       <c r="F13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.80,</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.87,</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>72.93,</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.00,</v>
       </c>
       <c r="J13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.06,</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.13,</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.19,</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.26,</v>
       </c>
       <c r="N13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.32,</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.38,</v>
       </c>
       <c r="P13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.44,</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.50,</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B13 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.56,</v>
       </c>
     </row>
@@ -4077,67 +4085,67 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>73.62,</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.68,</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.74,</v>
       </c>
       <c r="F14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.80,</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.86,</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.92,</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>73.98,</v>
       </c>
       <c r="J14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.04,</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.09,</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.15,</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.21,</v>
       </c>
       <c r="N14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.26,</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.32,</v>
       </c>
       <c r="P14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.38,</v>
       </c>
       <c r="Q14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.43,</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B14 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="0"/>
         <v>74.49,</v>
       </c>
     </row>
@@ -4146,67 +4154,67 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>74.54,</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" ref="D15:R24" si="2">CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + D$4)/ P_ZERO), 2), ",")</f>
         <v>74.59,</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.65,</v>
       </c>
       <c r="F15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.70,</v>
       </c>
       <c r="G15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.75,</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.81,</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.86,</v>
       </c>
       <c r="J15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.91,</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>74.96,</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.02,</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.07,</v>
       </c>
       <c r="N15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.12,</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.17,</v>
       </c>
       <c r="P15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.22,</v>
       </c>
       <c r="Q15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.27,</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.32,</v>
       </c>
     </row>
@@ -4215,67 +4223,67 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>75.37,</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.42,</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.47,</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.51,</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.56,</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.61,</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.66,</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.71,</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.75,</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.80,</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.85,</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.89,</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.94,</v>
       </c>
       <c r="P16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>75.99,</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.03,</v>
       </c>
       <c r="R16" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B16 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.08,</v>
       </c>
     </row>
@@ -4284,67 +4292,67 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>76.12,</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.17,</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.21,</v>
       </c>
       <c r="F17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.26,</v>
       </c>
       <c r="G17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.30,</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.35,</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.39,</v>
       </c>
       <c r="J17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.43,</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.48,</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.52,</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.56,</v>
       </c>
       <c r="N17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.61,</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.65,</v>
       </c>
       <c r="P17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.69,</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.73,</v>
       </c>
       <c r="R17" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B17 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.78,</v>
       </c>
     </row>
@@ -4353,67 +4361,67 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>76.82,</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.86,</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.90,</v>
       </c>
       <c r="F18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.94,</v>
       </c>
       <c r="G18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>76.98,</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.03,</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.07,</v>
       </c>
       <c r="J18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.11,</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.15,</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.19,</v>
       </c>
       <c r="M18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.23,</v>
       </c>
       <c r="N18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.27,</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.31,</v>
       </c>
       <c r="P18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.35,</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.38,</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B18 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.42,</v>
       </c>
     </row>
@@ -4422,67 +4430,67 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>77.46,</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.50,</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.54,</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.58,</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.62,</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.65,</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.69,</v>
       </c>
       <c r="J19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.73,</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.77,</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.80,</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.84,</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.88,</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.92,</v>
       </c>
       <c r="P19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.95,</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>77.99,</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B19 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.03,</v>
       </c>
     </row>
@@ -4491,67 +4499,67 @@
         <v>15</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>78.06,</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.10,</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.13,</v>
       </c>
       <c r="F20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.17,</v>
       </c>
       <c r="G20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.21,</v>
       </c>
       <c r="H20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.24,</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.28,</v>
       </c>
       <c r="J20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.31,</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.35,</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.38,</v>
       </c>
       <c r="M20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.42,</v>
       </c>
       <c r="N20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.45,</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.49,</v>
       </c>
       <c r="P20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.52,</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.55,</v>
       </c>
       <c r="R20" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B20 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.59,</v>
       </c>
     </row>
@@ -4560,67 +4568,67 @@
         <v>16</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>78.62,</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.66,</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.69,</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.72,</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.76,</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.79,</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.82,</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.86,</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.89,</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.92,</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.96,</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>78.99,</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.02,</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.05,</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.08,</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B21 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.12,</v>
       </c>
     </row>
@@ -4629,67 +4637,67 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>79.15,</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.18,</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.21,</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.24,</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.28,</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.31,</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.34,</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.37,</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.40,</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.43,</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.46,</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.49,</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.52,</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.55,</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.58,</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B22 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.62,</v>
       </c>
     </row>
@@ -4698,67 +4706,67 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>79.65,</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.68,</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.71,</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.74,</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.77,</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.79,</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.82,</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.85,</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.88,</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.91,</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.94,</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>79.97,</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.00,</v>
       </c>
       <c r="P23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.03,</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.06,</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B23 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.09,</v>
       </c>
     </row>
@@ -4767,67 +4775,67 @@
         <v>19</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>80.12,</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.14,</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.17,</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.20,</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.23,</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.26,</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.28,</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.31,</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.34,</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.37,</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.40,</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.42,</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.45,</v>
       </c>
       <c r="P24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.48,</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.51,</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B24 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="2"/>
         <v>80.53,</v>
       </c>
     </row>
@@ -4836,67 +4844,67 @@
         <v>20</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>80.56,</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" ref="D25:R36" si="3">CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + D$4)/ P_ZERO), 2), ",")</f>
         <v>80.59,</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.61,</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.64,</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.67,</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.70,</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.72,</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.75,</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.78,</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.80,</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.83,</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.85,</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.88,</v>
       </c>
       <c r="P25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.91,</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.93,</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>80.96,</v>
       </c>
     </row>
@@ -4905,67 +4913,67 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>80.98,</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.01,</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.04,</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.06,</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.09,</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.11,</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.14,</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.16,</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.19,</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.21,</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.24,</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.26,</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.29,</v>
       </c>
       <c r="P26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.31,</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.34,</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B26 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.36,</v>
       </c>
     </row>
@@ -4974,67 +4982,67 @@
         <v>22</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>81.39,</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.41,</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.44,</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.46,</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.49,</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.51,</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.54,</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.56,</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.58,</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.61,</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.63,</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.66,</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.68,</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.70,</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.73,</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B27 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.75,</v>
       </c>
     </row>
@@ -5043,67 +5051,67 @@
         <v>23</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>81.77,</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.80,</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.82,</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.85,</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.87,</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.89,</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.92,</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.94,</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.96,</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>81.98,</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.01,</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.03,</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.05,</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.08,</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.10,</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B28 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.12,</v>
       </c>
     </row>
@@ -5112,67 +5120,67 @@
         <v>24</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>82.14,</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.17,</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.19,</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.21,</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.23,</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.26,</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.28,</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.30,</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.32,</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.35,</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.37,</v>
       </c>
       <c r="N29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.39,</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.41,</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.43,</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.46,</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B29 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.48,</v>
       </c>
     </row>
@@ -5181,67 +5189,67 @@
         <v>25</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>82.50,</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.52,</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.54,</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.56,</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.59,</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.61,</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.63,</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.65,</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.67,</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.69,</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.71,</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.73,</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.76,</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.78,</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.80,</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B30 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.82,</v>
       </c>
     </row>
@@ -5250,67 +5258,67 @@
         <v>26</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>82.84,</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.86,</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.88,</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.90,</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.92,</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.94,</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.96,</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>82.98,</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.00,</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.03,</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.05,</v>
       </c>
       <c r="N31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.07,</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.09,</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.11,</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.13,</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B31 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.15,</v>
       </c>
     </row>
@@ -5319,67 +5327,67 @@
         <v>27</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>83.17,</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.19,</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.21,</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.23,</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.25,</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.27,</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.29,</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.31,</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.33,</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.35,</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.37,</v>
       </c>
       <c r="N32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.39,</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.41,</v>
       </c>
       <c r="P32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.42,</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.44,</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B32 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.46,</v>
       </c>
     </row>
@@ -5388,67 +5396,67 @@
         <v>28</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>83.48,</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.50,</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.52,</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.54,</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.56,</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.58,</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.60,</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.62,</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.64,</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.66,</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.67,</v>
       </c>
       <c r="N33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.69,</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.71,</v>
       </c>
       <c r="P33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.73,</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.75,</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B33 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.77,</v>
       </c>
     </row>
@@ -5457,67 +5465,67 @@
         <v>29</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>83.79,</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.81,</v>
       </c>
       <c r="E34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.83,</v>
       </c>
       <c r="F34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.84,</v>
       </c>
       <c r="G34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.86,</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.88,</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.90,</v>
       </c>
       <c r="J34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.92,</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.94,</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.95,</v>
       </c>
       <c r="M34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.97,</v>
       </c>
       <c r="N34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>83.99,</v>
       </c>
       <c r="O34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.01,</v>
       </c>
       <c r="P34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.03,</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.05,</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B34 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.06,</v>
       </c>
     </row>
@@ -5526,67 +5534,67 @@
         <v>30</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>84.08,</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.10,</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.12,</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.14,</v>
       </c>
       <c r="G35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.15,</v>
       </c>
       <c r="H35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.17,</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.19,</v>
       </c>
       <c r="J35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.21,</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.23,</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.24,</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.26,</v>
       </c>
       <c r="N35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.28,</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.30,</v>
       </c>
       <c r="P35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.31,</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.33,</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B35 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.35,</v>
       </c>
     </row>
@@ -5595,67 +5603,67 @@
         <v>31</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + C$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="1"/>
         <v>84.37,</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + D$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.38,</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + E$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.40,</v>
       </c>
       <c r="F36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + F$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.42,</v>
       </c>
       <c r="G36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + G$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.44,</v>
       </c>
       <c r="H36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + H$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.45,</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + I$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.47,</v>
       </c>
       <c r="J36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + J$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.49,</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + K$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.51,</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + L$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.52,</v>
       </c>
       <c r="M36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + M$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.54,</v>
       </c>
       <c r="N36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + N$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.56,</v>
       </c>
       <c r="O36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + O$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.57,</v>
       </c>
       <c r="P36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + P$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.59,</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + Q$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.61,</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f>CONCATENATE(FIXED(20 *LOG10((($B36 * 16) + R$4)/ P_ZERO), 2), ",")</f>
+        <f t="shared" si="3"/>
         <v>84.63,</v>
       </c>
     </row>

--- a/Lookup_Tables.xlsx
+++ b/Lookup_Tables.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guy/development/avrsnd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2224CC-DBA8-F544-830A-0FDFD8538D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B8F1CA-69D7-DC4B-959F-443D190D53A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="480" windowWidth="37920" windowHeight="22460" xr2:uid="{DD120292-E540-4843-A0F3-C6A293117715}"/>
   </bookViews>
   <sheets>
-    <sheet name="RMSLookup" sheetId="1" r:id="rId1"/>
+    <sheet name="Loudness" sheetId="1" r:id="rId1"/>
     <sheet name="dBALookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -439,7 +439,7 @@
   <dimension ref="B2:R258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,68 +505,68 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>CONCATENATE(INT((($B3 * 16) + C$2) * 0.707), ",")</f>
+        <f>CONCATENATE(INT(((($B3 * 16) + C$2) * 0.707) / 1.416), ",")</f>
         <v>0,</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:R19" si="0">CONCATENATE(INT((($B3 * 16) + D$2) * 0.707), ",")</f>
+        <f t="shared" ref="D3:R18" si="0">CONCATENATE(INT(((($B3 * 16) + D$2) * 0.707) / 1.416), ",")</f>
         <v>0,</v>
       </c>
       <c r="E3" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>0,</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>1,</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="G3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1,</v>
+      </c>
+      <c r="H3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2,</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="I3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2,</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="J3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3,</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="K3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>3,</v>
+      </c>
+      <c r="L3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4,</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="M3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4,</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="N3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>5,</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="O3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>5,</v>
+      </c>
+      <c r="P3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>6,</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="Q3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>6,</v>
+      </c>
+      <c r="R3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>7,</v>
-      </c>
-      <c r="N3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>7,</v>
-      </c>
-      <c r="O3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>8,</v>
-      </c>
-      <c r="P3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>9,</v>
-      </c>
-      <c r="Q3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>9,</v>
-      </c>
-      <c r="R3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>10,</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -574,68 +574,68 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f t="shared" ref="C4:R20" si="1">CONCATENATE(INT((($B4 * 16) + C$2) * 0.707), ",")</f>
+        <f t="shared" ref="C4:R34" si="1">CONCATENATE(INT(((($B4 * 16) + C$2) * 0.707) / 1.416), ",")</f>
+        <v>7,</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8,</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>8,</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9,</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>9,</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10,</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>10,</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>11,</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>11,</v>
+      </c>
+      <c r="L4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>12,</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="M4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>12,</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="N4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>13,</v>
       </c>
-      <c r="G4" s="3" t="str">
+      <c r="O4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>13,</v>
+      </c>
+      <c r="P4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14,</v>
       </c>
-      <c r="H4" s="3" t="str">
+      <c r="Q4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14,</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="R4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>15,</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>16,</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>16,</v>
-      </c>
-      <c r="L4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>17,</v>
-      </c>
-      <c r="M4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>18,</v>
-      </c>
-      <c r="N4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>19,</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>19,</v>
-      </c>
-      <c r="P4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>20,</v>
-      </c>
-      <c r="Q4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>21,</v>
-      </c>
-      <c r="R4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>21,</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -644,67 +644,67 @@
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>15,</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>16,</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>16,</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>17,</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>17,</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>18,</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>18,</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>19,</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20,</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>20,</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>21,</v>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>21,</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>22,</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="Q5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>22,</v>
+      </c>
+      <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>23,</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>24,</v>
-      </c>
-      <c r="F5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>24,</v>
-      </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>25,</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>26,</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>26,</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>27,</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>28,</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>28,</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>29,</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>30,</v>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>31,</v>
-      </c>
-      <c r="P5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>31,</v>
-      </c>
-      <c r="Q5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>32,</v>
-      </c>
-      <c r="R5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>33,</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -713,67 +713,67 @@
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>33,</v>
+        <v>23,</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>34,</v>
+        <v>24,</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>35,</v>
+        <v>24,</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36,</v>
+        <v>25,</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36,</v>
+        <v>25,</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>37,</v>
+        <v>26,</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>38,</v>
+        <v>26,</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>38,</v>
+        <v>27,</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>39,</v>
+        <v>27,</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40,</v>
+        <v>28,</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>41,</v>
+        <v>28,</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>41,</v>
+        <v>29,</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>42,</v>
+        <v>29,</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>43,</v>
+        <v>30,</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>43,</v>
+        <v>30,</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>44,</v>
+        <v>31,</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -782,67 +782,67 @@
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>45,</v>
+        <v>31,</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45,</v>
+        <v>32,</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>46,</v>
+        <v>32,</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>47,</v>
+        <v>33,</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>48,</v>
+        <v>33,</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>48,</v>
+        <v>34,</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>49,</v>
+        <v>34,</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>50,</v>
+        <v>35,</v>
       </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>50,</v>
+        <v>35,</v>
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>51,</v>
+        <v>36,</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52,</v>
+        <v>36,</v>
       </c>
       <c r="N7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53,</v>
+        <v>37,</v>
       </c>
       <c r="O7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53,</v>
+        <v>37,</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>54,</v>
+        <v>38,</v>
       </c>
       <c r="Q7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>55,</v>
+        <v>38,</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>55,</v>
+        <v>39,</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -851,67 +851,67 @@
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>56,</v>
+        <v>39,</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57,</v>
+        <v>40,</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57,</v>
+        <v>40,</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58,</v>
+        <v>41,</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59,</v>
+        <v>41,</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60,</v>
+        <v>42,</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60,</v>
+        <v>42,</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61,</v>
+        <v>43,</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62,</v>
+        <v>43,</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62,</v>
+        <v>44,</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63,</v>
+        <v>44,</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64,</v>
+        <v>45,</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65,</v>
+        <v>45,</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65,</v>
+        <v>46,</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66,</v>
+        <v>46,</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67,</v>
+        <v>47,</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -920,67 +920,67 @@
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>67,</v>
+        <v>47,</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68,</v>
+        <v>48,</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69,</v>
+        <v>48,</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69,</v>
+        <v>49,</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70,</v>
+        <v>49,</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71,</v>
+        <v>50,</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72,</v>
+        <v>50,</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72,</v>
+        <v>51,</v>
       </c>
       <c r="K9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73,</v>
+        <v>51,</v>
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74,</v>
+        <v>52,</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74,</v>
+        <v>52,</v>
       </c>
       <c r="N9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>75,</v>
+        <v>53,</v>
       </c>
       <c r="O9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>76,</v>
+        <v>53,</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>77,</v>
+        <v>54,</v>
       </c>
       <c r="Q9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>77,</v>
+        <v>54,</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>78,</v>
+        <v>55,</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -989,67 +989,67 @@
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>79,</v>
+        <v>55,</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>79,</v>
+        <v>56,</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>80,</v>
+        <v>56,</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>81,</v>
+        <v>57,</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>82,</v>
+        <v>57,</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>82,</v>
+        <v>58,</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>83,</v>
+        <v>58,</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>84,</v>
+        <v>59,</v>
       </c>
       <c r="K10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>84,</v>
+        <v>59,</v>
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>85,</v>
+        <v>60,</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>86,</v>
+        <v>60,</v>
       </c>
       <c r="N10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>86,</v>
+        <v>61,</v>
       </c>
       <c r="O10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>87,</v>
+        <v>61,</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>88,</v>
+        <v>62,</v>
       </c>
       <c r="Q10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>89,</v>
+        <v>62,</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>89,</v>
+        <v>63,</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -1058,67 +1058,67 @@
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>90,</v>
+        <v>63,</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>91,</v>
+        <v>64,</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>91,</v>
+        <v>64,</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>92,</v>
+        <v>65,</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>93,</v>
+        <v>65,</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>94,</v>
+        <v>66,</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>94,</v>
+        <v>66,</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>95,</v>
+        <v>67,</v>
       </c>
       <c r="K11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>96,</v>
+        <v>67,</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>96,</v>
+        <v>68,</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>97,</v>
+        <v>68,</v>
       </c>
       <c r="N11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>98,</v>
+        <v>69,</v>
       </c>
       <c r="O11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>98,</v>
+        <v>69,</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>99,</v>
+        <v>70,</v>
       </c>
       <c r="Q11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>100,</v>
+        <v>70,</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>101,</v>
+        <v>71,</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -1127,67 +1127,67 @@
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101,</v>
+        <v>71,</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>102,</v>
+        <v>72,</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>103,</v>
+        <v>72,</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>103,</v>
+        <v>73,</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>104,</v>
+        <v>73,</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>105,</v>
+        <v>74,</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>106,</v>
+        <v>74,</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>106,</v>
+        <v>75,</v>
       </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>107,</v>
+        <v>75,</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>108,</v>
+        <v>76,</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>108,</v>
+        <v>76,</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>109,</v>
+        <v>77,</v>
       </c>
       <c r="O12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>110,</v>
+        <v>77,</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>110,</v>
+        <v>78,</v>
       </c>
       <c r="Q12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>111,</v>
+        <v>78,</v>
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>112,</v>
+        <v>79,</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -1196,67 +1196,67 @@
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>113,</v>
+        <v>79,</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>113,</v>
+        <v>80,</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>114,</v>
+        <v>80,</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>115,</v>
+        <v>81,</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>115,</v>
+        <v>81,</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>116,</v>
+        <v>82,</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>117,</v>
+        <v>82,</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>118,</v>
+        <v>83,</v>
       </c>
       <c r="K13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>118,</v>
+        <v>83,</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>119,</v>
+        <v>84,</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>120,</v>
+        <v>84,</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>120,</v>
+        <v>85,</v>
       </c>
       <c r="O13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>121,</v>
+        <v>85,</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>122,</v>
+        <v>86,</v>
       </c>
       <c r="Q13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>123,</v>
+        <v>86,</v>
       </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>123,</v>
+        <v>87,</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -1265,67 +1265,67 @@
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>124,</v>
+        <v>87,</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>125,</v>
+        <v>88,</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>125,</v>
+        <v>88,</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>126,</v>
+        <v>89,</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>127,</v>
+        <v>89,</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>127,</v>
+        <v>90,</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>128,</v>
+        <v>90,</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>129,</v>
+        <v>91,</v>
       </c>
       <c r="K14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>130,</v>
+        <v>91,</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>130,</v>
+        <v>92,</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>131,</v>
+        <v>92,</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>132,</v>
+        <v>93,</v>
       </c>
       <c r="O14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>132,</v>
+        <v>93,</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>133,</v>
+        <v>94,</v>
       </c>
       <c r="Q14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>134,</v>
+        <v>94,</v>
       </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>135,</v>
+        <v>95,</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -1334,67 +1334,67 @@
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>135,</v>
+        <v>95,</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>136,</v>
+        <v>96,</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>137,</v>
+        <v>96,</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>137,</v>
+        <v>97,</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>138,</v>
+        <v>97,</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>139,</v>
+        <v>98,</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>139,</v>
+        <v>98,</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>140,</v>
+        <v>99,</v>
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>141,</v>
+        <v>99,</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>142,</v>
+        <v>100,</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>142,</v>
+        <v>100,</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>143,</v>
+        <v>101,</v>
       </c>
       <c r="O15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>144,</v>
+        <v>101,</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>144,</v>
+        <v>102,</v>
       </c>
       <c r="Q15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>145,</v>
+        <v>102,</v>
       </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>146,</v>
+        <v>103,</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -1403,67 +1403,67 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>147,</v>
+        <v>103,</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>147,</v>
+        <v>104,</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>148,</v>
+        <v>104,</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>149,</v>
+        <v>105,</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>149,</v>
+        <v>105,</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>150,</v>
+        <v>106,</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>151,</v>
+        <v>106,</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>152,</v>
+        <v>107,</v>
       </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>152,</v>
+        <v>107,</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>153,</v>
+        <v>108,</v>
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>154,</v>
+        <v>108,</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>154,</v>
+        <v>109,</v>
       </c>
       <c r="O16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>155,</v>
+        <v>109,</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>156,</v>
+        <v>110,</v>
       </c>
       <c r="Q16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>156,</v>
+        <v>110,</v>
       </c>
       <c r="R16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>157,</v>
+        <v>111,</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -1472,67 +1472,67 @@
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>158,</v>
+        <v>111,</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>159,</v>
+        <v>112,</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>159,</v>
+        <v>112,</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>160,</v>
+        <v>113,</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>161,</v>
+        <v>113,</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>161,</v>
+        <v>114,</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>162,</v>
+        <v>114,</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>163,</v>
+        <v>115,</v>
       </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>164,</v>
+        <v>115,</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>164,</v>
+        <v>116,</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>165,</v>
+        <v>116,</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>166,</v>
+        <v>117,</v>
       </c>
       <c r="O17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>166,</v>
+        <v>117,</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>167,</v>
+        <v>118,</v>
       </c>
       <c r="Q17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>168,</v>
+        <v>118,</v>
       </c>
       <c r="R17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>168,</v>
+        <v>119,</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -1541,67 +1541,67 @@
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>169,</v>
+        <v>119,</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>170,</v>
+        <v>120,</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>171,</v>
+        <v>120,</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>171,</v>
+        <v>121,</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>172,</v>
+        <v>121,</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>173,</v>
+        <v>122,</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>173,</v>
+        <v>122,</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>174,</v>
+        <v>123,</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>175,</v>
+        <v>123,</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>176,</v>
+        <v>124,</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>176,</v>
+        <v>124,</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>177,</v>
+        <v>125,</v>
       </c>
       <c r="O18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>178,</v>
+        <v>125,</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>178,</v>
+        <v>126,</v>
       </c>
       <c r="Q18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>179,</v>
+        <v>126,</v>
       </c>
       <c r="R18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>180,</v>
+        <v>127,</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -1609,68 +1609,68 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>CONCATENATE(INT((($B19 * 16) + C$2) * 0.707), ",")</f>
-        <v>180,</v>
+        <f t="shared" si="1"/>
+        <v>127,</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>181,</v>
+        <f t="shared" si="1"/>
+        <v>128,</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>182,</v>
+        <f t="shared" si="1"/>
+        <v>128,</v>
       </c>
       <c r="F19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>183,</v>
+        <f t="shared" si="1"/>
+        <v>129,</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>183,</v>
+        <f t="shared" si="1"/>
+        <v>129,</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>184,</v>
+        <f t="shared" si="1"/>
+        <v>130,</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>185,</v>
+        <f t="shared" si="1"/>
+        <v>130,</v>
       </c>
       <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>185,</v>
+        <f t="shared" si="1"/>
+        <v>131,</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>186,</v>
+        <f t="shared" si="1"/>
+        <v>131,</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>187,</v>
+        <f t="shared" si="1"/>
+        <v>132,</v>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>188,</v>
+        <f t="shared" si="1"/>
+        <v>132,</v>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>188,</v>
+        <f t="shared" si="1"/>
+        <v>133,</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>189,</v>
+        <f t="shared" si="1"/>
+        <v>133,</v>
       </c>
       <c r="P19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>190,</v>
+        <f t="shared" si="1"/>
+        <v>134,</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>190,</v>
+        <f t="shared" si="1"/>
+        <v>134,</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>191,</v>
+        <f t="shared" si="1"/>
+        <v>135,</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -1679,67 +1679,67 @@
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>192,</v>
+        <v>135,</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>193,</v>
+        <v>136,</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>193,</v>
+        <v>136,</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>194,</v>
+        <v>137,</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>195,</v>
+        <v>137,</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>195,</v>
+        <v>138,</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>196,</v>
+        <v>138,</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>197,</v>
+        <v>139,</v>
       </c>
       <c r="K20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>197,</v>
+        <v>139,</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>198,</v>
+        <v>140,</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>199,</v>
+        <v>140,</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>200,</v>
+        <v>141,</v>
       </c>
       <c r="O20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>200,</v>
+        <v>141,</v>
       </c>
       <c r="P20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>201,</v>
+        <v>142,</v>
       </c>
       <c r="Q20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>202,</v>
+        <v>142,</v>
       </c>
       <c r="R20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>202,</v>
+        <v>143,</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -1747,68 +1747,68 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f t="shared" ref="C21:R34" si="2">CONCATENATE(INT((($B21 * 16) + C$2) * 0.707), ",")</f>
-        <v>203,</v>
+        <f t="shared" si="1"/>
+        <v>143,</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>204,</v>
+        <f t="shared" si="1"/>
+        <v>144,</v>
       </c>
       <c r="E21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>205,</v>
+        <f t="shared" si="1"/>
+        <v>144,</v>
       </c>
       <c r="F21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>205,</v>
+        <f t="shared" si="1"/>
+        <v>145,</v>
       </c>
       <c r="G21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>206,</v>
+        <f t="shared" si="1"/>
+        <v>145,</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>207,</v>
+        <f t="shared" si="1"/>
+        <v>146,</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>207,</v>
+        <f t="shared" si="1"/>
+        <v>146,</v>
       </c>
       <c r="J21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>208,</v>
+        <f t="shared" si="1"/>
+        <v>147,</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>209,</v>
+        <f t="shared" si="1"/>
+        <v>147,</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>209,</v>
+        <f t="shared" si="1"/>
+        <v>148,</v>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>210,</v>
+        <f t="shared" si="1"/>
+        <v>148,</v>
       </c>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>211,</v>
+        <f t="shared" si="1"/>
+        <v>149,</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>212,</v>
+        <f t="shared" si="1"/>
+        <v>149,</v>
       </c>
       <c r="P21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>212,</v>
+        <f t="shared" si="1"/>
+        <v>150,</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>213,</v>
+        <f t="shared" si="1"/>
+        <v>150,</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>214,</v>
+        <f t="shared" si="1"/>
+        <v>151,</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
@@ -1816,68 +1816,68 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>214,</v>
+        <f t="shared" si="1"/>
+        <v>151,</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>215,</v>
+        <f t="shared" si="1"/>
+        <v>152,</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>216,</v>
+        <f t="shared" si="1"/>
+        <v>152,</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>217,</v>
+        <f t="shared" si="1"/>
+        <v>153,</v>
       </c>
       <c r="G22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>217,</v>
+        <f t="shared" si="1"/>
+        <v>153,</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>218,</v>
+        <f t="shared" si="1"/>
+        <v>154,</v>
       </c>
       <c r="I22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>219,</v>
+        <f t="shared" si="1"/>
+        <v>154,</v>
       </c>
       <c r="J22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>219,</v>
+        <f t="shared" si="1"/>
+        <v>155,</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>220,</v>
+        <f t="shared" si="1"/>
+        <v>155,</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>221,</v>
+        <f t="shared" si="1"/>
+        <v>156,</v>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>221,</v>
+        <f t="shared" si="1"/>
+        <v>156,</v>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>222,</v>
+        <f t="shared" si="1"/>
+        <v>157,</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>223,</v>
+        <f t="shared" si="1"/>
+        <v>157,</v>
       </c>
       <c r="P22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>224,</v>
+        <f t="shared" si="1"/>
+        <v>158,</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>224,</v>
+        <f t="shared" si="1"/>
+        <v>158,</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>225,</v>
+        <f t="shared" si="1"/>
+        <v>159,</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -1885,68 +1885,68 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>226,</v>
+        <f t="shared" si="1"/>
+        <v>159,</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>226,</v>
+        <f t="shared" si="1"/>
+        <v>160,</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>227,</v>
+        <f t="shared" si="1"/>
+        <v>160,</v>
       </c>
       <c r="F23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>228,</v>
+        <f t="shared" si="1"/>
+        <v>161,</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>229,</v>
+        <f t="shared" si="1"/>
+        <v>161,</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>229,</v>
+        <f t="shared" si="1"/>
+        <v>162,</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>230,</v>
+        <f t="shared" si="1"/>
+        <v>162,</v>
       </c>
       <c r="J23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>231,</v>
+        <f t="shared" si="1"/>
+        <v>163,</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>231,</v>
+        <f t="shared" si="1"/>
+        <v>163,</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>232,</v>
+        <f t="shared" si="1"/>
+        <v>164,</v>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>233,</v>
+        <f t="shared" si="1"/>
+        <v>164,</v>
       </c>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>234,</v>
+        <f t="shared" si="1"/>
+        <v>165,</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>234,</v>
+        <f t="shared" si="1"/>
+        <v>165,</v>
       </c>
       <c r="P23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>235,</v>
+        <f t="shared" si="1"/>
+        <v>166,</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>236,</v>
+        <f t="shared" si="1"/>
+        <v>166,</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>236,</v>
+        <f t="shared" si="1"/>
+        <v>167,</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -1954,68 +1954,68 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>237,</v>
+        <f t="shared" si="1"/>
+        <v>167,</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>238,</v>
+        <f t="shared" si="1"/>
+        <v>168,</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>238,</v>
+        <f t="shared" si="1"/>
+        <v>168,</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>239,</v>
+        <f t="shared" si="1"/>
+        <v>169,</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>240,</v>
+        <f t="shared" si="1"/>
+        <v>169,</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>241,</v>
+        <f t="shared" si="1"/>
+        <v>170,</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>241,</v>
+        <f t="shared" si="1"/>
+        <v>170,</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>242,</v>
+        <f t="shared" si="1"/>
+        <v>171,</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>243,</v>
+        <f t="shared" si="1"/>
+        <v>171,</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>243,</v>
+        <f t="shared" si="1"/>
+        <v>172,</v>
       </c>
       <c r="M24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>244,</v>
+        <f t="shared" si="1"/>
+        <v>172,</v>
       </c>
       <c r="N24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>245,</v>
+        <f t="shared" si="1"/>
+        <v>173,</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>246,</v>
+        <f t="shared" si="1"/>
+        <v>173,</v>
       </c>
       <c r="P24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>246,</v>
+        <f t="shared" si="1"/>
+        <v>174,</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>247,</v>
+        <f t="shared" si="1"/>
+        <v>174,</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>248,</v>
+        <f t="shared" si="1"/>
+        <v>175,</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -2023,68 +2023,68 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>248,</v>
+        <f t="shared" si="1"/>
+        <v>175,</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>249,</v>
+        <f t="shared" si="1"/>
+        <v>176,</v>
       </c>
       <c r="E25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>250,</v>
+        <f t="shared" si="1"/>
+        <v>176,</v>
       </c>
       <c r="F25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>250,</v>
+        <f t="shared" si="1"/>
+        <v>177,</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>251,</v>
+        <f t="shared" si="1"/>
+        <v>177,</v>
       </c>
       <c r="H25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>252,</v>
+        <f t="shared" si="1"/>
+        <v>178,</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>253,</v>
+        <f t="shared" si="1"/>
+        <v>178,</v>
       </c>
       <c r="J25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>253,</v>
+        <f t="shared" si="1"/>
+        <v>179,</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>254,</v>
+        <f t="shared" si="1"/>
+        <v>179,</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>255,</v>
+        <f t="shared" si="1"/>
+        <v>180,</v>
       </c>
       <c r="M25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>255,</v>
+        <f t="shared" si="1"/>
+        <v>180,</v>
       </c>
       <c r="N25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>256,</v>
+        <f t="shared" si="1"/>
+        <v>181,</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>257,</v>
+        <f t="shared" si="1"/>
+        <v>181,</v>
       </c>
       <c r="P25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>258,</v>
+        <f t="shared" si="1"/>
+        <v>182,</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>258,</v>
+        <f t="shared" si="1"/>
+        <v>182,</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>259,</v>
+        <f t="shared" si="1"/>
+        <v>183,</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -2092,68 +2092,68 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>260,</v>
+        <f t="shared" si="1"/>
+        <v>183,</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>260,</v>
+        <f t="shared" si="1"/>
+        <v>184,</v>
       </c>
       <c r="E26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>261,</v>
+        <f t="shared" si="1"/>
+        <v>184,</v>
       </c>
       <c r="F26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>262,</v>
+        <f t="shared" si="1"/>
+        <v>185,</v>
       </c>
       <c r="G26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>263,</v>
+        <f t="shared" si="1"/>
+        <v>185,</v>
       </c>
       <c r="H26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>263,</v>
+        <f t="shared" si="1"/>
+        <v>186,</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>264,</v>
+        <f t="shared" si="1"/>
+        <v>186,</v>
       </c>
       <c r="J26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>265,</v>
+        <f t="shared" si="1"/>
+        <v>187,</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>265,</v>
+        <f t="shared" si="1"/>
+        <v>187,</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>266,</v>
+        <f t="shared" si="1"/>
+        <v>188,</v>
       </c>
       <c r="M26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>267,</v>
+        <f t="shared" si="1"/>
+        <v>188,</v>
       </c>
       <c r="N26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>267,</v>
+        <f t="shared" si="1"/>
+        <v>189,</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>268,</v>
+        <f t="shared" si="1"/>
+        <v>189,</v>
       </c>
       <c r="P26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>269,</v>
+        <f t="shared" si="1"/>
+        <v>190,</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>270,</v>
+        <f t="shared" si="1"/>
+        <v>190,</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>270,</v>
+        <f t="shared" si="1"/>
+        <v>191,</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -2161,68 +2161,68 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>271,</v>
+        <f t="shared" si="1"/>
+        <v>191,</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>272,</v>
+        <f t="shared" si="1"/>
+        <v>192,</v>
       </c>
       <c r="E27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>272,</v>
+        <f t="shared" si="1"/>
+        <v>192,</v>
       </c>
       <c r="F27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>273,</v>
+        <f t="shared" si="1"/>
+        <v>193,</v>
       </c>
       <c r="G27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>274,</v>
+        <f t="shared" si="1"/>
+        <v>193,</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>275,</v>
+        <f t="shared" si="1"/>
+        <v>194,</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>275,</v>
+        <f t="shared" si="1"/>
+        <v>194,</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>276,</v>
+        <f t="shared" si="1"/>
+        <v>195,</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>277,</v>
+        <f t="shared" si="1"/>
+        <v>195,</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>277,</v>
+        <f t="shared" si="1"/>
+        <v>196,</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>278,</v>
+        <f t="shared" si="1"/>
+        <v>196,</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>279,</v>
+        <f t="shared" si="1"/>
+        <v>197,</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>279,</v>
+        <f t="shared" si="1"/>
+        <v>197,</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>280,</v>
+        <f t="shared" si="1"/>
+        <v>198,</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>281,</v>
+        <f t="shared" si="1"/>
+        <v>198,</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>282,</v>
+        <f t="shared" si="1"/>
+        <v>199,</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -2230,68 +2230,68 @@
         <v>25</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>282,</v>
+        <f t="shared" si="1"/>
+        <v>199,</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>283,</v>
+        <f t="shared" si="1"/>
+        <v>200,</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>284,</v>
+        <f t="shared" si="1"/>
+        <v>200,</v>
       </c>
       <c r="F28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>284,</v>
+        <f t="shared" si="1"/>
+        <v>201,</v>
       </c>
       <c r="G28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>285,</v>
+        <f t="shared" si="1"/>
+        <v>201,</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>286,</v>
+        <f t="shared" si="1"/>
+        <v>202,</v>
       </c>
       <c r="I28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>287,</v>
+        <f t="shared" si="1"/>
+        <v>202,</v>
       </c>
       <c r="J28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>287,</v>
+        <f t="shared" si="1"/>
+        <v>203,</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>288,</v>
+        <f t="shared" si="1"/>
+        <v>203,</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>289,</v>
+        <f t="shared" si="1"/>
+        <v>204,</v>
       </c>
       <c r="M28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>289,</v>
+        <f t="shared" si="1"/>
+        <v>204,</v>
       </c>
       <c r="N28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>290,</v>
+        <f t="shared" si="1"/>
+        <v>205,</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>291,</v>
+        <f t="shared" si="1"/>
+        <v>205,</v>
       </c>
       <c r="P28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>291,</v>
+        <f t="shared" si="1"/>
+        <v>206,</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>292,</v>
+        <f t="shared" si="1"/>
+        <v>206,</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>293,</v>
+        <f t="shared" si="1"/>
+        <v>207,</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -2299,68 +2299,68 @@
         <v>26</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>294,</v>
+        <f t="shared" si="1"/>
+        <v>207,</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>294,</v>
+        <f t="shared" si="1"/>
+        <v>208,</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>295,</v>
+        <f t="shared" si="1"/>
+        <v>208,</v>
       </c>
       <c r="F29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>296,</v>
+        <f t="shared" si="1"/>
+        <v>209,</v>
       </c>
       <c r="G29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>296,</v>
+        <f t="shared" si="1"/>
+        <v>209,</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>297,</v>
+        <f t="shared" si="1"/>
+        <v>210,</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>298,</v>
+        <f t="shared" si="1"/>
+        <v>210,</v>
       </c>
       <c r="J29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>299,</v>
+        <f t="shared" si="1"/>
+        <v>211,</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>299,</v>
+        <f t="shared" si="1"/>
+        <v>211,</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>300,</v>
+        <f t="shared" si="1"/>
+        <v>212,</v>
       </c>
       <c r="M29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>301,</v>
+        <f t="shared" si="1"/>
+        <v>212,</v>
       </c>
       <c r="N29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>301,</v>
+        <f t="shared" si="1"/>
+        <v>213,</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>302,</v>
+        <f t="shared" si="1"/>
+        <v>213,</v>
       </c>
       <c r="P29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>303,</v>
+        <f t="shared" si="1"/>
+        <v>214,</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>304,</v>
+        <f t="shared" si="1"/>
+        <v>214,</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>304,</v>
+        <f t="shared" si="1"/>
+        <v>215,</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -2368,68 +2368,68 @@
         <v>27</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>305,</v>
+        <f t="shared" si="1"/>
+        <v>215,</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>306,</v>
+        <f t="shared" si="1"/>
+        <v>216,</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>306,</v>
+        <f t="shared" si="1"/>
+        <v>216,</v>
       </c>
       <c r="F30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>307,</v>
+        <f t="shared" si="1"/>
+        <v>217,</v>
       </c>
       <c r="G30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>308,</v>
+        <f t="shared" si="1"/>
+        <v>217,</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>308,</v>
+        <f t="shared" si="1"/>
+        <v>218,</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>309,</v>
+        <f t="shared" si="1"/>
+        <v>218,</v>
       </c>
       <c r="J30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>310,</v>
+        <f t="shared" si="1"/>
+        <v>219,</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>311,</v>
+        <f t="shared" si="1"/>
+        <v>219,</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>311,</v>
+        <f t="shared" si="1"/>
+        <v>220,</v>
       </c>
       <c r="M30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>312,</v>
+        <f t="shared" si="1"/>
+        <v>220,</v>
       </c>
       <c r="N30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>313,</v>
+        <f t="shared" si="1"/>
+        <v>221,</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>313,</v>
+        <f t="shared" si="1"/>
+        <v>221,</v>
       </c>
       <c r="P30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>314,</v>
+        <f t="shared" si="1"/>
+        <v>222,</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>315,</v>
+        <f t="shared" si="1"/>
+        <v>222,</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>316,</v>
+        <f t="shared" si="1"/>
+        <v>223,</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -2437,68 +2437,68 @@
         <v>28</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>316,</v>
+        <f t="shared" si="1"/>
+        <v>223,</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>317,</v>
+        <f t="shared" si="1"/>
+        <v>224,</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>318,</v>
+        <f t="shared" si="1"/>
+        <v>224,</v>
       </c>
       <c r="F31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>318,</v>
+        <f t="shared" si="1"/>
+        <v>225,</v>
       </c>
       <c r="G31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>319,</v>
+        <f t="shared" si="1"/>
+        <v>225,</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>320,</v>
+        <f t="shared" si="1"/>
+        <v>226,</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>320,</v>
+        <f t="shared" si="1"/>
+        <v>226,</v>
       </c>
       <c r="J31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>321,</v>
+        <f t="shared" si="1"/>
+        <v>227,</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>322,</v>
+        <f t="shared" si="1"/>
+        <v>227,</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>323,</v>
+        <f t="shared" si="1"/>
+        <v>228,</v>
       </c>
       <c r="M31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>323,</v>
+        <f t="shared" si="1"/>
+        <v>228,</v>
       </c>
       <c r="N31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>324,</v>
+        <f t="shared" si="1"/>
+        <v>229,</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>325,</v>
+        <f t="shared" si="1"/>
+        <v>229,</v>
       </c>
       <c r="P31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>325,</v>
+        <f t="shared" si="1"/>
+        <v>230,</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>326,</v>
+        <f t="shared" si="1"/>
+        <v>230,</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>327,</v>
+        <f t="shared" si="1"/>
+        <v>231,</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -2506,68 +2506,68 @@
         <v>29</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>328,</v>
+        <f t="shared" si="1"/>
+        <v>231,</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>328,</v>
+        <f t="shared" si="1"/>
+        <v>232,</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>329,</v>
+        <f t="shared" si="1"/>
+        <v>232,</v>
       </c>
       <c r="F32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>330,</v>
+        <f t="shared" si="1"/>
+        <v>233,</v>
       </c>
       <c r="G32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>330,</v>
+        <f t="shared" si="1"/>
+        <v>233,</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>331,</v>
+        <f t="shared" si="1"/>
+        <v>234,</v>
       </c>
       <c r="I32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>332,</v>
+        <f t="shared" si="1"/>
+        <v>234,</v>
       </c>
       <c r="J32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>332,</v>
+        <f t="shared" si="1"/>
+        <v>235,</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>333,</v>
+        <f t="shared" si="1"/>
+        <v>235,</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>334,</v>
+        <f t="shared" si="1"/>
+        <v>236,</v>
       </c>
       <c r="M32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>335,</v>
+        <f t="shared" si="1"/>
+        <v>236,</v>
       </c>
       <c r="N32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>335,</v>
+        <f t="shared" si="1"/>
+        <v>237,</v>
       </c>
       <c r="O32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>336,</v>
+        <f t="shared" si="1"/>
+        <v>237,</v>
       </c>
       <c r="P32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>337,</v>
+        <f t="shared" si="1"/>
+        <v>238,</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>337,</v>
+        <f t="shared" si="1"/>
+        <v>238,</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>338,</v>
+        <f t="shared" si="1"/>
+        <v>239,</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
@@ -2575,68 +2575,68 @@
         <v>30</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>339,</v>
+        <f t="shared" si="1"/>
+        <v>239,</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>340,</v>
+        <f t="shared" si="1"/>
+        <v>240,</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>340,</v>
+        <f t="shared" si="1"/>
+        <v>240,</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>341,</v>
+        <f t="shared" si="1"/>
+        <v>241,</v>
       </c>
       <c r="G33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>342,</v>
+        <f t="shared" si="1"/>
+        <v>241,</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>342,</v>
+        <f t="shared" si="1"/>
+        <v>242,</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>343,</v>
+        <f t="shared" si="1"/>
+        <v>242,</v>
       </c>
       <c r="J33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>344,</v>
+        <f t="shared" si="1"/>
+        <v>243,</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>345,</v>
+        <f t="shared" si="1"/>
+        <v>243,</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>345,</v>
+        <f t="shared" si="1"/>
+        <v>244,</v>
       </c>
       <c r="M33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>346,</v>
+        <f t="shared" si="1"/>
+        <v>244,</v>
       </c>
       <c r="N33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>347,</v>
+        <f t="shared" si="1"/>
+        <v>245,</v>
       </c>
       <c r="O33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>347,</v>
+        <f t="shared" si="1"/>
+        <v>245,</v>
       </c>
       <c r="P33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>348,</v>
+        <f t="shared" si="1"/>
+        <v>246,</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>349,</v>
+        <f t="shared" si="1"/>
+        <v>246,</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>349,</v>
+        <f t="shared" si="1"/>
+        <v>247,</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
@@ -2644,68 +2644,68 @@
         <v>31</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>350,</v>
+        <f t="shared" ref="C34:R34" si="2">CONCATENATE(INT(((($B34 * 16) + C$2) * 0.707) / 1.416), ",")</f>
+        <v>247,</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>351,</v>
+        <v>248,</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>352,</v>
+        <v>248,</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>352,</v>
+        <v>249,</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>353,</v>
+        <v>249,</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>354,</v>
+        <v>250,</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>354,</v>
+        <v>250,</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>355,</v>
+        <v>251,</v>
       </c>
       <c r="K34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>356,</v>
+        <v>251,</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>357,</v>
+        <v>252,</v>
       </c>
       <c r="M34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>357,</v>
+        <v>252,</v>
       </c>
       <c r="N34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>358,</v>
+        <v>253,</v>
       </c>
       <c r="O34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>359,</v>
+        <v>253,</v>
       </c>
       <c r="P34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>359,</v>
+        <v>254,</v>
       </c>
       <c r="Q34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>360,</v>
+        <v>254,</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f>CONCATENATE(INT((($B34 * 16) + R$2) * 0.707), ",")</f>
-        <v>361,</v>
+        <f t="shared" si="2"/>
+        <v>255,</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
@@ -3390,7 +3390,7 @@
   <dimension ref="B2:R36"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C5" sqref="C5:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -3469,63 +3469,63 @@
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" ref="D5:R14" si="0">CONCATENATE(FIXED(20 *LOG10((($B5 * 16) + D$4)/ P_ZERO), 2), ",")</f>
-        <v>30.46,</v>
+        <v>19.17,</v>
       </c>
       <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36.48,</v>
+        <v>25.19,</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>28.71,</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>31.21,</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>33.15,</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>34.74,</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>36.07,</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>37.23,</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>38.26,</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>39.17,</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>40.00,</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>42.50,</v>
-      </c>
-      <c r="H5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>44.44,</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>46.02,</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>47.36,</v>
-      </c>
-      <c r="K5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>48.52,</v>
-      </c>
-      <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>49.54,</v>
-      </c>
-      <c r="M5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>50.46,</v>
-      </c>
-      <c r="N5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>51.29,</v>
-      </c>
       <c r="O5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52.04,</v>
+        <v>40.76,</v>
       </c>
       <c r="P5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52.74,</v>
+        <v>41.45,</v>
       </c>
       <c r="Q5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53.38,</v>
+        <v>42.09,</v>
       </c>
       <c r="R5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53.98,</v>
+        <v>42.69,</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -3534,67 +3534,67 @@
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" ref="C6:C36" si="1">CONCATENATE(FIXED(20 *LOG10((($B6 * 16) + C$4)/ P_ZERO), 2), ",")</f>
-        <v>54.54,</v>
+        <v>43.25,</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>55.07,</v>
+        <v>43.78,</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>55.56,</v>
+        <v>44.28,</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56.03,</v>
+        <v>44.75,</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56.48,</v>
+        <v>45.19,</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56.90,</v>
+        <v>45.62,</v>
       </c>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57.31,</v>
+        <v>46.02,</v>
       </c>
       <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57.69,</v>
+        <v>46.41,</v>
       </c>
       <c r="K6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58.06,</v>
+        <v>46.78,</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58.42,</v>
+        <v>47.13,</v>
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58.76,</v>
+        <v>47.47,</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59.08,</v>
+        <v>47.80,</v>
       </c>
       <c r="O6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59.40,</v>
+        <v>48.12,</v>
       </c>
       <c r="P6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59.71,</v>
+        <v>48.42,</v>
       </c>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60.00,</v>
+        <v>48.71,</v>
       </c>
       <c r="R6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60.28,</v>
+        <v>49.00,</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -3603,67 +3603,67 @@
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>60.56,</v>
+        <v>49.28,</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60.83,</v>
+        <v>49.54,</v>
       </c>
       <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61.09,</v>
+        <v>49.80,</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61.34,</v>
+        <v>50.05,</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61.58,</v>
+        <v>50.30,</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61.82,</v>
+        <v>50.54,</v>
       </c>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62.05,</v>
+        <v>50.77,</v>
       </c>
       <c r="J7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62.28,</v>
+        <v>50.99,</v>
       </c>
       <c r="K7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62.50,</v>
+        <v>51.21,</v>
       </c>
       <c r="L7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62.71,</v>
+        <v>51.43,</v>
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62.92,</v>
+        <v>51.64,</v>
       </c>
       <c r="N7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.13,</v>
+        <v>51.84,</v>
       </c>
       <c r="O7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.33,</v>
+        <v>52.04,</v>
       </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.52,</v>
+        <v>52.24,</v>
       </c>
       <c r="Q7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.71,</v>
+        <v>52.43,</v>
       </c>
       <c r="R7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63.90,</v>
+        <v>52.61,</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -3672,67 +3672,67 @@
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>64.08,</v>
+        <v>52.80,</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64.26,</v>
+        <v>52.98,</v>
       </c>
       <c r="E8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64.44,</v>
+        <v>53.15,</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64.61,</v>
+        <v>53.32,</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64.78,</v>
+        <v>53.49,</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64.94,</v>
+        <v>53.66,</v>
       </c>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.11,</v>
+        <v>53.82,</v>
       </c>
       <c r="J8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.26,</v>
+        <v>53.98,</v>
       </c>
       <c r="K8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.42,</v>
+        <v>54.14,</v>
       </c>
       <c r="L8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.58,</v>
+        <v>54.29,</v>
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.73,</v>
+        <v>54.44,</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>65.87,</v>
+        <v>54.59,</v>
       </c>
       <c r="O8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.02,</v>
+        <v>54.74,</v>
       </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.16,</v>
+        <v>54.88,</v>
       </c>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.31,</v>
+        <v>55.02,</v>
       </c>
       <c r="R8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.44,</v>
+        <v>55.16,</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -3741,67 +3741,67 @@
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>66.58,</v>
+        <v>55.30,</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.72,</v>
+        <v>55.43,</v>
       </c>
       <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.85,</v>
+        <v>55.56,</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>66.98,</v>
+        <v>55.69,</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.11,</v>
+        <v>55.82,</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.23,</v>
+        <v>55.95,</v>
       </c>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.36,</v>
+        <v>56.07,</v>
       </c>
       <c r="J9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.48,</v>
+        <v>56.20,</v>
       </c>
       <c r="K9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.60,</v>
+        <v>56.32,</v>
       </c>
       <c r="L9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.72,</v>
+        <v>56.44,</v>
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.84,</v>
+        <v>56.56,</v>
       </c>
       <c r="N9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>67.96,</v>
+        <v>56.67,</v>
       </c>
       <c r="O9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.07,</v>
+        <v>56.79,</v>
       </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.19,</v>
+        <v>56.90,</v>
       </c>
       <c r="Q9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.30,</v>
+        <v>57.01,</v>
       </c>
       <c r="R9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.41,</v>
+        <v>57.12,</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -3810,67 +3810,67 @@
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>68.52,</v>
+        <v>57.23,</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.63,</v>
+        <v>57.34,</v>
       </c>
       <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.73,</v>
+        <v>57.45,</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.84,</v>
+        <v>57.55,</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>68.94,</v>
+        <v>57.66,</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.05,</v>
+        <v>57.76,</v>
       </c>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.15,</v>
+        <v>57.86,</v>
       </c>
       <c r="J10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.25,</v>
+        <v>57.96,</v>
       </c>
       <c r="K10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.35,</v>
+        <v>58.06,</v>
       </c>
       <c r="L10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.45,</v>
+        <v>58.16,</v>
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.54,</v>
+        <v>58.26,</v>
       </c>
       <c r="N10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.64,</v>
+        <v>58.35,</v>
       </c>
       <c r="O10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.73,</v>
+        <v>58.45,</v>
       </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.83,</v>
+        <v>58.54,</v>
       </c>
       <c r="Q10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>69.92,</v>
+        <v>58.63,</v>
       </c>
       <c r="R10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.01,</v>
+        <v>58.73,</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -3879,67 +3879,67 @@
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>70.10,</v>
+        <v>58.82,</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.19,</v>
+        <v>58.91,</v>
       </c>
       <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.28,</v>
+        <v>59.00,</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.37,</v>
+        <v>59.08,</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.46,</v>
+        <v>59.17,</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.54,</v>
+        <v>59.26,</v>
       </c>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.63,</v>
+        <v>59.34,</v>
       </c>
       <c r="J11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.71,</v>
+        <v>59.43,</v>
       </c>
       <c r="K11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.80,</v>
+        <v>59.51,</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.88,</v>
+        <v>59.60,</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>70.96,</v>
+        <v>59.68,</v>
       </c>
       <c r="N11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.05,</v>
+        <v>59.76,</v>
       </c>
       <c r="O11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.13,</v>
+        <v>59.84,</v>
       </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.21,</v>
+        <v>59.92,</v>
       </c>
       <c r="Q11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.29,</v>
+        <v>60.00,</v>
       </c>
       <c r="R11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.36,</v>
+        <v>60.08,</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -3948,67 +3948,67 @@
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>71.44,</v>
+        <v>60.16,</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.52,</v>
+        <v>60.23,</v>
       </c>
       <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.60,</v>
+        <v>60.31,</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.67,</v>
+        <v>60.39,</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.75,</v>
+        <v>60.46,</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.82,</v>
+        <v>60.54,</v>
       </c>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.90,</v>
+        <v>60.61,</v>
       </c>
       <c r="J12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>71.97,</v>
+        <v>60.68,</v>
       </c>
       <c r="K12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.04,</v>
+        <v>60.76,</v>
       </c>
       <c r="L12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.11,</v>
+        <v>60.83,</v>
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.18,</v>
+        <v>60.90,</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.26,</v>
+        <v>60.97,</v>
       </c>
       <c r="O12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.33,</v>
+        <v>61.04,</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.40,</v>
+        <v>61.11,</v>
       </c>
       <c r="Q12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.46,</v>
+        <v>61.18,</v>
       </c>
       <c r="R12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.53,</v>
+        <v>61.25,</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -4017,67 +4017,67 @@
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>72.60,</v>
+        <v>61.32,</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.67,</v>
+        <v>61.38,</v>
       </c>
       <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.74,</v>
+        <v>61.45,</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.80,</v>
+        <v>61.52,</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.87,</v>
+        <v>61.58,</v>
       </c>
       <c r="H13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>72.93,</v>
+        <v>61.65,</v>
       </c>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.00,</v>
+        <v>61.71,</v>
       </c>
       <c r="J13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.06,</v>
+        <v>61.78,</v>
       </c>
       <c r="K13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.13,</v>
+        <v>61.84,</v>
       </c>
       <c r="L13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.19,</v>
+        <v>61.91,</v>
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.26,</v>
+        <v>61.97,</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.32,</v>
+        <v>62.03,</v>
       </c>
       <c r="O13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.38,</v>
+        <v>62.09,</v>
       </c>
       <c r="P13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.44,</v>
+        <v>62.16,</v>
       </c>
       <c r="Q13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.50,</v>
+        <v>62.22,</v>
       </c>
       <c r="R13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.56,</v>
+        <v>62.28,</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -4086,67 +4086,67 @@
       </c>
       <c r="C14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>73.62,</v>
+        <v>62.34,</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.68,</v>
+        <v>62.40,</v>
       </c>
       <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.74,</v>
+        <v>62.46,</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.80,</v>
+        <v>62.52,</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.86,</v>
+        <v>62.58,</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.92,</v>
+        <v>62.64,</v>
       </c>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>73.98,</v>
+        <v>62.69,</v>
       </c>
       <c r="J14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.04,</v>
+        <v>62.75,</v>
       </c>
       <c r="K14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.09,</v>
+        <v>62.81,</v>
       </c>
       <c r="L14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.15,</v>
+        <v>62.87,</v>
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.21,</v>
+        <v>62.92,</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.26,</v>
+        <v>62.98,</v>
       </c>
       <c r="O14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.32,</v>
+        <v>63.03,</v>
       </c>
       <c r="P14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.38,</v>
+        <v>63.09,</v>
       </c>
       <c r="Q14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.43,</v>
+        <v>63.15,</v>
       </c>
       <c r="R14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>74.49,</v>
+        <v>63.20,</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -4155,67 +4155,67 @@
       </c>
       <c r="C15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>74.54,</v>
+        <v>63.25,</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" ref="D15:R24" si="2">CONCATENATE(FIXED(20 *LOG10((($B15 * 16) + D$4)/ P_ZERO), 2), ",")</f>
-        <v>74.59,</v>
+        <v>63.31,</v>
       </c>
       <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.65,</v>
+        <v>63.36,</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.70,</v>
+        <v>63.42,</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.75,</v>
+        <v>63.47,</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.81,</v>
+        <v>63.52,</v>
       </c>
       <c r="I15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.86,</v>
+        <v>63.57,</v>
       </c>
       <c r="J15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.91,</v>
+        <v>63.63,</v>
       </c>
       <c r="K15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>74.96,</v>
+        <v>63.68,</v>
       </c>
       <c r="L15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.02,</v>
+        <v>63.73,</v>
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.07,</v>
+        <v>63.78,</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.12,</v>
+        <v>63.83,</v>
       </c>
       <c r="O15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.17,</v>
+        <v>63.88,</v>
       </c>
       <c r="P15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.22,</v>
+        <v>63.93,</v>
       </c>
       <c r="Q15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.27,</v>
+        <v>63.98,</v>
       </c>
       <c r="R15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.32,</v>
+        <v>64.03,</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -4224,67 +4224,67 @@
       </c>
       <c r="C16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>75.37,</v>
+        <v>64.08,</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.42,</v>
+        <v>64.13,</v>
       </c>
       <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.47,</v>
+        <v>64.18,</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.51,</v>
+        <v>64.23,</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.56,</v>
+        <v>64.28,</v>
       </c>
       <c r="H16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.61,</v>
+        <v>64.33,</v>
       </c>
       <c r="I16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.66,</v>
+        <v>64.37,</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.71,</v>
+        <v>64.42,</v>
       </c>
       <c r="K16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.75,</v>
+        <v>64.47,</v>
       </c>
       <c r="L16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.80,</v>
+        <v>64.52,</v>
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.85,</v>
+        <v>64.56,</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.89,</v>
+        <v>64.61,</v>
       </c>
       <c r="O16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.94,</v>
+        <v>64.66,</v>
       </c>
       <c r="P16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>75.99,</v>
+        <v>64.70,</v>
       </c>
       <c r="Q16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.03,</v>
+        <v>64.75,</v>
       </c>
       <c r="R16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.08,</v>
+        <v>64.79,</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -4293,67 +4293,67 @@
       </c>
       <c r="C17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>76.12,</v>
+        <v>64.84,</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.17,</v>
+        <v>64.88,</v>
       </c>
       <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.21,</v>
+        <v>64.93,</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.26,</v>
+        <v>64.97,</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.30,</v>
+        <v>65.02,</v>
       </c>
       <c r="H17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.35,</v>
+        <v>65.06,</v>
       </c>
       <c r="I17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.39,</v>
+        <v>65.11,</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.43,</v>
+        <v>65.15,</v>
       </c>
       <c r="K17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.48,</v>
+        <v>65.19,</v>
       </c>
       <c r="L17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.52,</v>
+        <v>65.24,</v>
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.56,</v>
+        <v>65.28,</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.61,</v>
+        <v>65.32,</v>
       </c>
       <c r="O17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.65,</v>
+        <v>65.36,</v>
       </c>
       <c r="P17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.69,</v>
+        <v>65.41,</v>
       </c>
       <c r="Q17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.73,</v>
+        <v>65.45,</v>
       </c>
       <c r="R17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.78,</v>
+        <v>65.49,</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -4362,67 +4362,67 @@
       </c>
       <c r="C18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>76.82,</v>
+        <v>65.53,</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.86,</v>
+        <v>65.58,</v>
       </c>
       <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.90,</v>
+        <v>65.62,</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.94,</v>
+        <v>65.66,</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>76.98,</v>
+        <v>65.70,</v>
       </c>
       <c r="H18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.03,</v>
+        <v>65.74,</v>
       </c>
       <c r="I18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.07,</v>
+        <v>65.78,</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.11,</v>
+        <v>65.82,</v>
       </c>
       <c r="K18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.15,</v>
+        <v>65.86,</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.19,</v>
+        <v>65.90,</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.23,</v>
+        <v>65.94,</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.27,</v>
+        <v>65.98,</v>
       </c>
       <c r="O18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.31,</v>
+        <v>66.02,</v>
       </c>
       <c r="P18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.35,</v>
+        <v>66.06,</v>
       </c>
       <c r="Q18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.38,</v>
+        <v>66.10,</v>
       </c>
       <c r="R18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.42,</v>
+        <v>66.14,</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -4431,67 +4431,67 @@
       </c>
       <c r="C19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>77.46,</v>
+        <v>66.18,</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.50,</v>
+        <v>66.22,</v>
       </c>
       <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.54,</v>
+        <v>66.25,</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.58,</v>
+        <v>66.29,</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.62,</v>
+        <v>66.33,</v>
       </c>
       <c r="H19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.65,</v>
+        <v>66.37,</v>
       </c>
       <c r="I19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.69,</v>
+        <v>66.41,</v>
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.73,</v>
+        <v>66.44,</v>
       </c>
       <c r="K19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.77,</v>
+        <v>66.48,</v>
       </c>
       <c r="L19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.80,</v>
+        <v>66.52,</v>
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.84,</v>
+        <v>66.56,</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.88,</v>
+        <v>66.59,</v>
       </c>
       <c r="O19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.92,</v>
+        <v>66.63,</v>
       </c>
       <c r="P19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.95,</v>
+        <v>66.67,</v>
       </c>
       <c r="Q19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>77.99,</v>
+        <v>66.70,</v>
       </c>
       <c r="R19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.03,</v>
+        <v>66.74,</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -4500,67 +4500,67 @@
       </c>
       <c r="C20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>78.06,</v>
+        <v>66.78,</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.10,</v>
+        <v>66.81,</v>
       </c>
       <c r="E20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.13,</v>
+        <v>66.85,</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.17,</v>
+        <v>66.88,</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.21,</v>
+        <v>66.92,</v>
       </c>
       <c r="H20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.24,</v>
+        <v>66.96,</v>
       </c>
       <c r="I20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.28,</v>
+        <v>66.99,</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.31,</v>
+        <v>67.03,</v>
       </c>
       <c r="K20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.35,</v>
+        <v>67.06,</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.38,</v>
+        <v>67.10,</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.42,</v>
+        <v>67.13,</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.45,</v>
+        <v>67.17,</v>
       </c>
       <c r="O20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.49,</v>
+        <v>67.20,</v>
       </c>
       <c r="P20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.52,</v>
+        <v>67.23,</v>
       </c>
       <c r="Q20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.55,</v>
+        <v>67.27,</v>
       </c>
       <c r="R20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.59,</v>
+        <v>67.30,</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -4569,67 +4569,67 @@
       </c>
       <c r="C21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>78.62,</v>
+        <v>67.34,</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.66,</v>
+        <v>67.37,</v>
       </c>
       <c r="E21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.69,</v>
+        <v>67.40,</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.72,</v>
+        <v>67.44,</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.76,</v>
+        <v>67.47,</v>
       </c>
       <c r="H21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.79,</v>
+        <v>67.50,</v>
       </c>
       <c r="I21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.82,</v>
+        <v>67.54,</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.86,</v>
+        <v>67.57,</v>
       </c>
       <c r="K21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.89,</v>
+        <v>67.60,</v>
       </c>
       <c r="L21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.92,</v>
+        <v>67.64,</v>
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.96,</v>
+        <v>67.67,</v>
       </c>
       <c r="N21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>78.99,</v>
+        <v>67.70,</v>
       </c>
       <c r="O21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.02,</v>
+        <v>67.73,</v>
       </c>
       <c r="P21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.05,</v>
+        <v>67.77,</v>
       </c>
       <c r="Q21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.08,</v>
+        <v>67.80,</v>
       </c>
       <c r="R21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.12,</v>
+        <v>67.83,</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
@@ -4638,67 +4638,67 @@
       </c>
       <c r="C22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>79.15,</v>
+        <v>67.86,</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.18,</v>
+        <v>67.90,</v>
       </c>
       <c r="E22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.21,</v>
+        <v>67.93,</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.24,</v>
+        <v>67.96,</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.28,</v>
+        <v>67.99,</v>
       </c>
       <c r="H22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.31,</v>
+        <v>68.02,</v>
       </c>
       <c r="I22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.34,</v>
+        <v>68.05,</v>
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.37,</v>
+        <v>68.08,</v>
       </c>
       <c r="K22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.40,</v>
+        <v>68.12,</v>
       </c>
       <c r="L22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.43,</v>
+        <v>68.15,</v>
       </c>
       <c r="M22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.46,</v>
+        <v>68.18,</v>
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.49,</v>
+        <v>68.21,</v>
       </c>
       <c r="O22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.52,</v>
+        <v>68.24,</v>
       </c>
       <c r="P22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.55,</v>
+        <v>68.27,</v>
       </c>
       <c r="Q22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.58,</v>
+        <v>68.30,</v>
       </c>
       <c r="R22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.62,</v>
+        <v>68.33,</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -4707,67 +4707,67 @@
       </c>
       <c r="C23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>79.65,</v>
+        <v>68.36,</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.68,</v>
+        <v>68.39,</v>
       </c>
       <c r="E23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.71,</v>
+        <v>68.42,</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.74,</v>
+        <v>68.45,</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.77,</v>
+        <v>68.48,</v>
       </c>
       <c r="H23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.79,</v>
+        <v>68.51,</v>
       </c>
       <c r="I23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.82,</v>
+        <v>68.54,</v>
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.85,</v>
+        <v>68.57,</v>
       </c>
       <c r="K23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.88,</v>
+        <v>68.60,</v>
       </c>
       <c r="L23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.91,</v>
+        <v>68.63,</v>
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.94,</v>
+        <v>68.66,</v>
       </c>
       <c r="N23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>79.97,</v>
+        <v>68.69,</v>
       </c>
       <c r="O23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.00,</v>
+        <v>68.71,</v>
       </c>
       <c r="P23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.03,</v>
+        <v>68.74,</v>
       </c>
       <c r="Q23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.06,</v>
+        <v>68.77,</v>
       </c>
       <c r="R23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.09,</v>
+        <v>68.80,</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -4776,67 +4776,67 @@
       </c>
       <c r="C24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>80.12,</v>
+        <v>68.83,</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.14,</v>
+        <v>68.86,</v>
       </c>
       <c r="E24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.17,</v>
+        <v>68.89,</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.20,</v>
+        <v>68.91,</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.23,</v>
+        <v>68.94,</v>
       </c>
       <c r="H24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.26,</v>
+        <v>68.97,</v>
       </c>
       <c r="I24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.28,</v>
+        <v>69.00,</v>
       </c>
       <c r="J24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.31,</v>
+        <v>69.03,</v>
       </c>
       <c r="K24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.34,</v>
+        <v>69.06,</v>
       </c>
       <c r="L24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.37,</v>
+        <v>69.08,</v>
       </c>
       <c r="M24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.40,</v>
+        <v>69.11,</v>
       </c>
       <c r="N24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.42,</v>
+        <v>69.14,</v>
       </c>
       <c r="O24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.45,</v>
+        <v>69.17,</v>
       </c>
       <c r="P24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.48,</v>
+        <v>69.19,</v>
       </c>
       <c r="Q24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.51,</v>
+        <v>69.22,</v>
       </c>
       <c r="R24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>80.53,</v>
+        <v>69.25,</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -4845,67 +4845,67 @@
       </c>
       <c r="C25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>80.56,</v>
+        <v>69.28,</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" ref="D25:R36" si="3">CONCATENATE(FIXED(20 *LOG10((($B25 * 16) + D$4)/ P_ZERO), 2), ",")</f>
-        <v>80.59,</v>
+        <v>69.30,</v>
       </c>
       <c r="E25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.61,</v>
+        <v>69.33,</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.64,</v>
+        <v>69.36,</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.67,</v>
+        <v>69.38,</v>
       </c>
       <c r="H25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.70,</v>
+        <v>69.41,</v>
       </c>
       <c r="I25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.72,</v>
+        <v>69.44,</v>
       </c>
       <c r="J25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.75,</v>
+        <v>69.46,</v>
       </c>
       <c r="K25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.78,</v>
+        <v>69.49,</v>
       </c>
       <c r="L25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.80,</v>
+        <v>69.52,</v>
       </c>
       <c r="M25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.83,</v>
+        <v>69.54,</v>
       </c>
       <c r="N25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.85,</v>
+        <v>69.57,</v>
       </c>
       <c r="O25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.88,</v>
+        <v>69.59,</v>
       </c>
       <c r="P25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.91,</v>
+        <v>69.62,</v>
       </c>
       <c r="Q25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.93,</v>
+        <v>69.65,</v>
       </c>
       <c r="R25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>80.96,</v>
+        <v>69.67,</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -4914,67 +4914,67 @@
       </c>
       <c r="C26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>80.98,</v>
+        <v>69.70,</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.01,</v>
+        <v>69.72,</v>
       </c>
       <c r="E26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.04,</v>
+        <v>69.75,</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.06,</v>
+        <v>69.78,</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.09,</v>
+        <v>69.80,</v>
       </c>
       <c r="H26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.11,</v>
+        <v>69.83,</v>
       </c>
       <c r="I26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.14,</v>
+        <v>69.85,</v>
       </c>
       <c r="J26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.16,</v>
+        <v>69.88,</v>
       </c>
       <c r="K26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.19,</v>
+        <v>69.90,</v>
       </c>
       <c r="L26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.21,</v>
+        <v>69.93,</v>
       </c>
       <c r="M26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.24,</v>
+        <v>69.95,</v>
       </c>
       <c r="N26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.26,</v>
+        <v>69.98,</v>
       </c>
       <c r="O26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.29,</v>
+        <v>70.00,</v>
       </c>
       <c r="P26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.31,</v>
+        <v>70.03,</v>
       </c>
       <c r="Q26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.34,</v>
+        <v>70.05,</v>
       </c>
       <c r="R26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.36,</v>
+        <v>70.08,</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -4983,67 +4983,67 @@
       </c>
       <c r="C27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>81.39,</v>
+        <v>70.10,</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.41,</v>
+        <v>70.13,</v>
       </c>
       <c r="E27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.44,</v>
+        <v>70.15,</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.46,</v>
+        <v>70.18,</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.49,</v>
+        <v>70.20,</v>
       </c>
       <c r="H27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.51,</v>
+        <v>70.23,</v>
       </c>
       <c r="I27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.54,</v>
+        <v>70.25,</v>
       </c>
       <c r="J27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.56,</v>
+        <v>70.27,</v>
       </c>
       <c r="K27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.58,</v>
+        <v>70.30,</v>
       </c>
       <c r="L27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.61,</v>
+        <v>70.32,</v>
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.63,</v>
+        <v>70.35,</v>
       </c>
       <c r="N27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.66,</v>
+        <v>70.37,</v>
       </c>
       <c r="O27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.68,</v>
+        <v>70.39,</v>
       </c>
       <c r="P27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.70,</v>
+        <v>70.42,</v>
       </c>
       <c r="Q27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.73,</v>
+        <v>70.44,</v>
       </c>
       <c r="R27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.75,</v>
+        <v>70.47,</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -5052,67 +5052,67 @@
       </c>
       <c r="C28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>81.77,</v>
+        <v>70.49,</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.80,</v>
+        <v>70.51,</v>
       </c>
       <c r="E28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.82,</v>
+        <v>70.54,</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.85,</v>
+        <v>70.56,</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.87,</v>
+        <v>70.58,</v>
       </c>
       <c r="H28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.89,</v>
+        <v>70.61,</v>
       </c>
       <c r="I28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.92,</v>
+        <v>70.63,</v>
       </c>
       <c r="J28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.94,</v>
+        <v>70.65,</v>
       </c>
       <c r="K28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.96,</v>
+        <v>70.68,</v>
       </c>
       <c r="L28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>81.98,</v>
+        <v>70.70,</v>
       </c>
       <c r="M28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.01,</v>
+        <v>70.72,</v>
       </c>
       <c r="N28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.03,</v>
+        <v>70.74,</v>
       </c>
       <c r="O28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.05,</v>
+        <v>70.77,</v>
       </c>
       <c r="P28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.08,</v>
+        <v>70.79,</v>
       </c>
       <c r="Q28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.10,</v>
+        <v>70.81,</v>
       </c>
       <c r="R28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.12,</v>
+        <v>70.84,</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -5121,67 +5121,67 @@
       </c>
       <c r="C29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>82.14,</v>
+        <v>70.86,</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.17,</v>
+        <v>70.88,</v>
       </c>
       <c r="E29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.19,</v>
+        <v>70.90,</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.21,</v>
+        <v>70.93,</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.23,</v>
+        <v>70.95,</v>
       </c>
       <c r="H29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.26,</v>
+        <v>70.97,</v>
       </c>
       <c r="I29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.28,</v>
+        <v>70.99,</v>
       </c>
       <c r="J29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.30,</v>
+        <v>71.02,</v>
       </c>
       <c r="K29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.32,</v>
+        <v>71.04,</v>
       </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.35,</v>
+        <v>71.06,</v>
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.37,</v>
+        <v>71.08,</v>
       </c>
       <c r="N29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.39,</v>
+        <v>71.10,</v>
       </c>
       <c r="O29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.41,</v>
+        <v>71.13,</v>
       </c>
       <c r="P29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.43,</v>
+        <v>71.15,</v>
       </c>
       <c r="Q29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.46,</v>
+        <v>71.17,</v>
       </c>
       <c r="R29" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.48,</v>
+        <v>71.19,</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -5190,67 +5190,67 @@
       </c>
       <c r="C30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>82.50,</v>
+        <v>71.21,</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.52,</v>
+        <v>71.24,</v>
       </c>
       <c r="E30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.54,</v>
+        <v>71.26,</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.56,</v>
+        <v>71.28,</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.59,</v>
+        <v>71.30,</v>
       </c>
       <c r="H30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.61,</v>
+        <v>71.32,</v>
       </c>
       <c r="I30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.63,</v>
+        <v>71.34,</v>
       </c>
       <c r="J30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.65,</v>
+        <v>71.36,</v>
       </c>
       <c r="K30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.67,</v>
+        <v>71.39,</v>
       </c>
       <c r="L30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.69,</v>
+        <v>71.41,</v>
       </c>
       <c r="M30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.71,</v>
+        <v>71.43,</v>
       </c>
       <c r="N30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.73,</v>
+        <v>71.45,</v>
       </c>
       <c r="O30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.76,</v>
+        <v>71.47,</v>
       </c>
       <c r="P30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.78,</v>
+        <v>71.49,</v>
       </c>
       <c r="Q30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.80,</v>
+        <v>71.51,</v>
       </c>
       <c r="R30" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.82,</v>
+        <v>71.53,</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -5259,67 +5259,67 @@
       </c>
       <c r="C31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>82.84,</v>
+        <v>71.55,</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.86,</v>
+        <v>71.57,</v>
       </c>
       <c r="E31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.88,</v>
+        <v>71.60,</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.90,</v>
+        <v>71.62,</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.92,</v>
+        <v>71.64,</v>
       </c>
       <c r="H31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.94,</v>
+        <v>71.66,</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.96,</v>
+        <v>71.68,</v>
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>82.98,</v>
+        <v>71.70,</v>
       </c>
       <c r="K31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.00,</v>
+        <v>71.72,</v>
       </c>
       <c r="L31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.03,</v>
+        <v>71.74,</v>
       </c>
       <c r="M31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.05,</v>
+        <v>71.76,</v>
       </c>
       <c r="N31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.07,</v>
+        <v>71.78,</v>
       </c>
       <c r="O31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.09,</v>
+        <v>71.80,</v>
       </c>
       <c r="P31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.11,</v>
+        <v>71.82,</v>
       </c>
       <c r="Q31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.13,</v>
+        <v>71.84,</v>
       </c>
       <c r="R31" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.15,</v>
+        <v>71.86,</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -5328,67 +5328,67 @@
       </c>
       <c r="C32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>83.17,</v>
+        <v>71.88,</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.19,</v>
+        <v>71.90,</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.21,</v>
+        <v>71.92,</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.23,</v>
+        <v>71.94,</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.25,</v>
+        <v>71.96,</v>
       </c>
       <c r="H32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.27,</v>
+        <v>71.98,</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.29,</v>
+        <v>72.00,</v>
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.31,</v>
+        <v>72.02,</v>
       </c>
       <c r="K32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.33,</v>
+        <v>72.04,</v>
       </c>
       <c r="L32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.35,</v>
+        <v>72.06,</v>
       </c>
       <c r="M32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.37,</v>
+        <v>72.08,</v>
       </c>
       <c r="N32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.39,</v>
+        <v>72.10,</v>
       </c>
       <c r="O32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.41,</v>
+        <v>72.12,</v>
       </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.42,</v>
+        <v>72.14,</v>
       </c>
       <c r="Q32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.44,</v>
+        <v>72.16,</v>
       </c>
       <c r="R32" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.46,</v>
+        <v>72.18,</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
@@ -5397,67 +5397,67 @@
       </c>
       <c r="C33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>83.48,</v>
+        <v>72.20,</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.50,</v>
+        <v>72.22,</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.52,</v>
+        <v>72.24,</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.54,</v>
+        <v>72.26,</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.56,</v>
+        <v>72.27,</v>
       </c>
       <c r="H33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.58,</v>
+        <v>72.29,</v>
       </c>
       <c r="I33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.60,</v>
+        <v>72.31,</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.62,</v>
+        <v>72.33,</v>
       </c>
       <c r="K33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.64,</v>
+        <v>72.35,</v>
       </c>
       <c r="L33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.66,</v>
+        <v>72.37,</v>
       </c>
       <c r="M33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.67,</v>
+        <v>72.39,</v>
       </c>
       <c r="N33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.69,</v>
+        <v>72.41,</v>
       </c>
       <c r="O33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.71,</v>
+        <v>72.43,</v>
       </c>
       <c r="P33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.73,</v>
+        <v>72.45,</v>
       </c>
       <c r="Q33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.75,</v>
+        <v>72.46,</v>
       </c>
       <c r="R33" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.77,</v>
+        <v>72.48,</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
@@ -5466,67 +5466,67 @@
       </c>
       <c r="C34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>83.79,</v>
+        <v>72.50,</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.81,</v>
+        <v>72.52,</v>
       </c>
       <c r="E34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.83,</v>
+        <v>72.54,</v>
       </c>
       <c r="F34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.84,</v>
+        <v>72.56,</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.86,</v>
+        <v>72.58,</v>
       </c>
       <c r="H34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.88,</v>
+        <v>72.60,</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.90,</v>
+        <v>72.61,</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.92,</v>
+        <v>72.63,</v>
       </c>
       <c r="K34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.94,</v>
+        <v>72.65,</v>
       </c>
       <c r="L34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.95,</v>
+        <v>72.67,</v>
       </c>
       <c r="M34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.97,</v>
+        <v>72.69,</v>
       </c>
       <c r="N34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>83.99,</v>
+        <v>72.71,</v>
       </c>
       <c r="O34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.01,</v>
+        <v>72.72,</v>
       </c>
       <c r="P34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.03,</v>
+        <v>72.74,</v>
       </c>
       <c r="Q34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.05,</v>
+        <v>72.76,</v>
       </c>
       <c r="R34" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.06,</v>
+        <v>72.78,</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
@@ -5535,67 +5535,67 @@
       </c>
       <c r="C35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>84.08,</v>
+        <v>72.80,</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.10,</v>
+        <v>72.82,</v>
       </c>
       <c r="E35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.12,</v>
+        <v>72.83,</v>
       </c>
       <c r="F35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.14,</v>
+        <v>72.85,</v>
       </c>
       <c r="G35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.15,</v>
+        <v>72.87,</v>
       </c>
       <c r="H35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.17,</v>
+        <v>72.89,</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.19,</v>
+        <v>72.90,</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.21,</v>
+        <v>72.92,</v>
       </c>
       <c r="K35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.23,</v>
+        <v>72.94,</v>
       </c>
       <c r="L35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.24,</v>
+        <v>72.96,</v>
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.26,</v>
+        <v>72.98,</v>
       </c>
       <c r="N35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.28,</v>
+        <v>72.99,</v>
       </c>
       <c r="O35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.30,</v>
+        <v>73.01,</v>
       </c>
       <c r="P35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.31,</v>
+        <v>73.03,</v>
       </c>
       <c r="Q35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.33,</v>
+        <v>73.05,</v>
       </c>
       <c r="R35" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.35,</v>
+        <v>73.06,</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
@@ -5604,67 +5604,67 @@
       </c>
       <c r="C36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>84.37,</v>
+        <v>73.08,</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.38,</v>
+        <v>73.10,</v>
       </c>
       <c r="E36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.40,</v>
+        <v>73.12,</v>
       </c>
       <c r="F36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.42,</v>
+        <v>73.13,</v>
       </c>
       <c r="G36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.44,</v>
+        <v>73.15,</v>
       </c>
       <c r="H36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.45,</v>
+        <v>73.17,</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.47,</v>
+        <v>73.19,</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.49,</v>
+        <v>73.20,</v>
       </c>
       <c r="K36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.51,</v>
+        <v>73.22,</v>
       </c>
       <c r="L36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.52,</v>
+        <v>73.24,</v>
       </c>
       <c r="M36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.54,</v>
+        <v>73.26,</v>
       </c>
       <c r="N36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.56,</v>
+        <v>73.27,</v>
       </c>
       <c r="O36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.57,</v>
+        <v>73.29,</v>
       </c>
       <c r="P36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.59,</v>
+        <v>73.31,</v>
       </c>
       <c r="Q36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.61,</v>
+        <v>73.32,</v>
       </c>
       <c r="R36" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>84.63,</v>
+        <v>73.34,</v>
       </c>
     </row>
   </sheetData>
